--- a/trend/trend_following_rules.xlsx
+++ b/trend/trend_following_rules.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\transfer\trend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="-40" windowWidth="21600" windowHeight="14580" tabRatio="659" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="3255" yWindow="-45" windowWidth="21600" windowHeight="14580" tabRatio="659" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <sheet name="Min Portfolio Size" sheetId="8" r:id="rId7"/>
     <sheet name="Markets Clenow" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="313">
   <si>
     <t>Rates</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -1238,18 +1243,42 @@
     <t>Why do correlation with natural log of returns vs just returns</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>CME</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>EUREX</t>
+  </si>
+  <si>
+    <t>10 EUR</t>
+  </si>
+  <si>
+    <t>FESQ</t>
+  </si>
+  <si>
+    <t>5 EUR</t>
+  </si>
+  <si>
+    <t>EURONEXT</t>
+  </si>
+  <si>
+    <t>1000 EUR</t>
+  </si>
+  <si>
+    <t>EUR/USD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1286,6 +1315,17 @@
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1307,7 +1347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1318,6 +1358,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1654,28 +1697,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="32.75" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>64</v>
       </c>
@@ -1683,7 +1726,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -1697,7 +1740,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>70</v>
       </c>
@@ -1714,7 +1757,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>72</v>
       </c>
@@ -1722,19 +1765,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>173</v>
       </c>
@@ -1745,7 +1788,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42350</v>
       </c>
@@ -1756,7 +1799,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>75</v>
       </c>
@@ -1764,7 +1807,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>79</v>
       </c>
@@ -1772,7 +1815,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>301</v>
       </c>
@@ -1780,7 +1823,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>76</v>
       </c>
@@ -1788,7 +1831,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>76</v>
       </c>
@@ -1796,7 +1839,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>77</v>
       </c>
@@ -1804,7 +1847,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>74</v>
       </c>
@@ -1812,7 +1855,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>78</v>
       </c>
@@ -1820,7 +1863,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>76</v>
       </c>
@@ -1828,7 +1871,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>162</v>
       </c>
@@ -1836,12 +1879,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>174</v>
       </c>
@@ -1849,7 +1892,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>174</v>
       </c>
@@ -1857,7 +1900,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>167</v>
       </c>
@@ -1865,7 +1908,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42356</v>
       </c>
@@ -1876,7 +1919,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>288</v>
       </c>
@@ -1884,7 +1927,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>194</v>
       </c>
@@ -1892,17 +1935,17 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>194</v>
       </c>
@@ -1910,27 +1953,27 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>194</v>
       </c>
@@ -1938,7 +1981,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>194</v>
       </c>
@@ -1946,7 +1989,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>194</v>
       </c>
@@ -1954,17 +1997,17 @@
         <v>197</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>42357</v>
       </c>
@@ -1972,12 +2015,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>169</v>
       </c>
@@ -1985,17 +2028,17 @@
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>42360</v>
       </c>
@@ -2006,7 +2049,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>151</v>
       </c>
@@ -2014,22 +2057,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>50</v>
       </c>
@@ -2046,25 +2089,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C53" sqref="C53:G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>107</v>
       </c>
@@ -2072,7 +2115,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>103</v>
       </c>
@@ -2080,7 +2123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>104</v>
       </c>
@@ -2089,7 +2132,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
         <v>263</v>
       </c>
@@ -2101,7 +2144,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>42343</v>
       </c>
@@ -2109,7 +2152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2139,7 +2182,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>210</v>
       </c>
@@ -2175,7 +2218,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>213</v>
       </c>
@@ -2211,7 +2254,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>61</v>
       </c>
@@ -2235,7 +2278,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>142</v>
       </c>
@@ -2259,7 +2302,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>176</v>
       </c>
@@ -2295,22 +2338,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>287</v>
       </c>
@@ -2339,7 +2382,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>215</v>
       </c>
@@ -2374,12 +2417,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>176</v>
       </c>
@@ -2415,7 +2458,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>178</v>
       </c>
@@ -2426,7 +2469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>179</v>
       </c>
@@ -2437,7 +2480,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>180</v>
       </c>
@@ -2448,12 +2491,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>126</v>
       </c>
@@ -2477,7 +2520,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>127</v>
       </c>
@@ -2504,7 +2547,7 @@
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>248</v>
       </c>
@@ -2540,7 +2583,7 @@
         <v>1.8499999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>142</v>
       </c>
@@ -2564,7 +2607,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>143</v>
       </c>
@@ -2588,12 +2631,12 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>66</v>
       </c>
@@ -2629,7 +2672,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>58</v>
       </c>
@@ -2665,7 +2708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>60</v>
       </c>
@@ -2689,7 +2732,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>61</v>
       </c>
@@ -2713,17 +2756,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>62</v>
       </c>
@@ -2750,7 +2793,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>258</v>
       </c>
@@ -2768,7 +2811,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="54" spans="2:14">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>52</v>
       </c>
@@ -2798,7 +2841,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>55</v>
       </c>
@@ -2834,7 +2877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>291</v>
       </c>
@@ -2858,7 +2901,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>293</v>
       </c>
@@ -2882,7 +2925,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>221</v>
       </c>
@@ -2912,12 +2955,12 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>214</v>
       </c>
@@ -2925,12 +2968,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>159</v>
       </c>
@@ -2954,7 +2997,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>223</v>
       </c>
@@ -2978,7 +3021,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>144</v>
       </c>
@@ -3002,7 +3045,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>234</v>
       </c>
@@ -3029,7 +3072,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>237</v>
       </c>
@@ -3066,16 +3109,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AQ734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1:AD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>218</v>
       </c>
@@ -3101,7 +3144,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -3175,7 +3218,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>41564</v>
       </c>
@@ -3225,7 +3268,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>41565</v>
       </c>
@@ -3331,7 +3374,7 @@
         <v>6.513112250538815</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>41566</v>
       </c>
@@ -3437,7 +3480,7 @@
         <v>36.46915606453495</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>41569</v>
       </c>
@@ -3543,7 +3586,7 @@
         <v>18.019557065939935</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>41570</v>
       </c>
@@ -3593,7 +3636,7 @@
         <v>350.75</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>41571</v>
       </c>
@@ -3645,7 +3688,7 @@
       </c>
       <c r="AP9" s="1"/>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>41572</v>
       </c>
@@ -3697,7 +3740,7 @@
       </c>
       <c r="AP10" s="1"/>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>41573</v>
       </c>
@@ -3750,7 +3793,7 @@
       </c>
       <c r="AP11" s="1"/>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>41576</v>
       </c>
@@ -3803,7 +3846,7 @@
       </c>
       <c r="AP12" s="1"/>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>41577</v>
       </c>
@@ -3856,7 +3899,7 @@
       </c>
       <c r="AP13" s="1"/>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>41578</v>
       </c>
@@ -3909,7 +3952,7 @@
       </c>
       <c r="AP14" s="1"/>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>41579</v>
       </c>
@@ -3962,7 +4005,7 @@
       </c>
       <c r="AP15" s="1"/>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>41580</v>
       </c>
@@ -4015,7 +4058,7 @@
       </c>
       <c r="AP16" s="1"/>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>41583</v>
       </c>
@@ -4068,7 +4111,7 @@
       </c>
       <c r="AP17" s="1"/>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>41584</v>
       </c>
@@ -4121,7 +4164,7 @@
       </c>
       <c r="AP18" s="1"/>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>41585</v>
       </c>
@@ -4174,7 +4217,7 @@
       </c>
       <c r="AP19" s="1"/>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>41586</v>
       </c>
@@ -4227,7 +4270,7 @@
       </c>
       <c r="AP20" s="1"/>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>41587</v>
       </c>
@@ -4280,7 +4323,7 @@
       </c>
       <c r="AP21" s="1"/>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>41590</v>
       </c>
@@ -4333,7 +4376,7 @@
       </c>
       <c r="AP22" s="1"/>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>41591</v>
       </c>
@@ -4386,7 +4429,7 @@
       </c>
       <c r="AP23" s="1"/>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>41592</v>
       </c>
@@ -4439,7 +4482,7 @@
       </c>
       <c r="AP24" s="1"/>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>41593</v>
       </c>
@@ -4492,7 +4535,7 @@
       </c>
       <c r="AP25" s="1"/>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>41594</v>
       </c>
@@ -4545,7 +4588,7 @@
       </c>
       <c r="AP26" s="1"/>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>41597</v>
       </c>
@@ -4598,7 +4641,7 @@
       </c>
       <c r="AP27" s="1"/>
     </row>
-    <row r="28" spans="1:42">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>41598</v>
       </c>
@@ -4651,7 +4694,7 @@
       </c>
       <c r="AP28" s="1"/>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>41599</v>
       </c>
@@ -4704,7 +4747,7 @@
       </c>
       <c r="AP29" s="1"/>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>41601</v>
       </c>
@@ -4757,7 +4800,7 @@
       </c>
       <c r="AP30" s="1"/>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>41604</v>
       </c>
@@ -4810,7 +4853,7 @@
       </c>
       <c r="AP31" s="1"/>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>41605</v>
       </c>
@@ -4863,7 +4906,7 @@
       </c>
       <c r="AP32" s="1"/>
     </row>
-    <row r="33" spans="1:42">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>41606</v>
       </c>
@@ -4916,7 +4959,7 @@
       </c>
       <c r="AP33" s="1"/>
     </row>
-    <row r="34" spans="1:42">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>41607</v>
       </c>
@@ -4969,7 +5012,7 @@
       </c>
       <c r="AP34" s="1"/>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>41608</v>
       </c>
@@ -5022,7 +5065,7 @@
       </c>
       <c r="AP35" s="1"/>
     </row>
-    <row r="36" spans="1:42">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>41611</v>
       </c>
@@ -5075,7 +5118,7 @@
       </c>
       <c r="AP36" s="1"/>
     </row>
-    <row r="37" spans="1:42">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>41612</v>
       </c>
@@ -5128,7 +5171,7 @@
       </c>
       <c r="AP37" s="1"/>
     </row>
-    <row r="38" spans="1:42">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>41613</v>
       </c>
@@ -5181,7 +5224,7 @@
       </c>
       <c r="AP38" s="1"/>
     </row>
-    <row r="39" spans="1:42">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>41614</v>
       </c>
@@ -5234,7 +5277,7 @@
       </c>
       <c r="AP39" s="1"/>
     </row>
-    <row r="40" spans="1:42">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>41615</v>
       </c>
@@ -5287,7 +5330,7 @@
       </c>
       <c r="AP40" s="1"/>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>41618</v>
       </c>
@@ -5340,7 +5383,7 @@
       </c>
       <c r="AP41" s="1"/>
     </row>
-    <row r="42" spans="1:42">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41619</v>
       </c>
@@ -5393,7 +5436,7 @@
       </c>
       <c r="AP42" s="1"/>
     </row>
-    <row r="43" spans="1:42">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41620</v>
       </c>
@@ -5446,7 +5489,7 @@
       </c>
       <c r="AP43" s="1"/>
     </row>
-    <row r="44" spans="1:42">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>41621</v>
       </c>
@@ -5499,7 +5542,7 @@
       </c>
       <c r="AP44" s="1"/>
     </row>
-    <row r="45" spans="1:42">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>41622</v>
       </c>
@@ -5552,7 +5595,7 @@
       </c>
       <c r="AP45" s="1"/>
     </row>
-    <row r="46" spans="1:42">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>41625</v>
       </c>
@@ -5605,7 +5648,7 @@
       </c>
       <c r="AP46" s="1"/>
     </row>
-    <row r="47" spans="1:42">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>41626</v>
       </c>
@@ -5658,7 +5701,7 @@
       </c>
       <c r="AP47" s="1"/>
     </row>
-    <row r="48" spans="1:42">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>41627</v>
       </c>
@@ -5711,7 +5754,7 @@
       </c>
       <c r="AP48" s="1"/>
     </row>
-    <row r="49" spans="1:42">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>41628</v>
       </c>
@@ -5764,7 +5807,7 @@
       </c>
       <c r="AP49" s="1"/>
     </row>
-    <row r="50" spans="1:42">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>41629</v>
       </c>
@@ -5817,7 +5860,7 @@
       </c>
       <c r="AP50" s="1"/>
     </row>
-    <row r="51" spans="1:42">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>41633</v>
       </c>
@@ -5870,7 +5913,7 @@
       </c>
       <c r="AP51" s="1"/>
     </row>
-    <row r="52" spans="1:42">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>41634</v>
       </c>
@@ -5920,7 +5963,7 @@
       </c>
       <c r="AP52" s="1"/>
     </row>
-    <row r="53" spans="1:42">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>41635</v>
       </c>
@@ -5973,7 +6016,7 @@
       </c>
       <c r="AP53" s="1"/>
     </row>
-    <row r="54" spans="1:42">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>41636</v>
       </c>
@@ -6026,7 +6069,7 @@
       </c>
       <c r="AP54" s="1"/>
     </row>
-    <row r="55" spans="1:42">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>41640</v>
       </c>
@@ -6079,7 +6122,7 @@
       </c>
       <c r="AP55" s="1"/>
     </row>
-    <row r="56" spans="1:42">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>41641</v>
       </c>
@@ -6132,7 +6175,7 @@
       </c>
       <c r="AP56" s="1"/>
     </row>
-    <row r="57" spans="1:42">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>41642</v>
       </c>
@@ -6185,7 +6228,7 @@
       </c>
       <c r="AP57" s="1"/>
     </row>
-    <row r="58" spans="1:42">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>41643</v>
       </c>
@@ -6238,7 +6281,7 @@
       </c>
       <c r="AP58" s="1"/>
     </row>
-    <row r="59" spans="1:42">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>41646</v>
       </c>
@@ -6291,7 +6334,7 @@
       </c>
       <c r="AP59" s="1"/>
     </row>
-    <row r="60" spans="1:42">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>41647</v>
       </c>
@@ -6344,7 +6387,7 @@
       </c>
       <c r="AP60" s="1"/>
     </row>
-    <row r="61" spans="1:42">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>41648</v>
       </c>
@@ -6397,7 +6440,7 @@
       </c>
       <c r="AP61" s="1"/>
     </row>
-    <row r="62" spans="1:42">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>41649</v>
       </c>
@@ -6450,7 +6493,7 @@
       </c>
       <c r="AP62" s="1"/>
     </row>
-    <row r="63" spans="1:42">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>41650</v>
       </c>
@@ -6503,7 +6546,7 @@
       </c>
       <c r="AP63" s="1"/>
     </row>
-    <row r="64" spans="1:42">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>41654</v>
       </c>
@@ -6556,7 +6599,7 @@
       </c>
       <c r="AP64" s="1"/>
     </row>
-    <row r="65" spans="1:42">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>41655</v>
       </c>
@@ -6609,7 +6652,7 @@
       </c>
       <c r="AP65" s="1"/>
     </row>
-    <row r="66" spans="1:42">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>41656</v>
       </c>
@@ -6662,7 +6705,7 @@
       </c>
       <c r="AP66" s="1"/>
     </row>
-    <row r="67" spans="1:42">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>41657</v>
       </c>
@@ -6712,7 +6755,7 @@
       </c>
       <c r="AP67" s="1"/>
     </row>
-    <row r="68" spans="1:42">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>41660</v>
       </c>
@@ -6765,7 +6808,7 @@
       </c>
       <c r="AP68" s="1"/>
     </row>
-    <row r="69" spans="1:42">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>41661</v>
       </c>
@@ -6818,7 +6861,7 @@
       </c>
       <c r="AP69" s="1"/>
     </row>
-    <row r="70" spans="1:42">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>41662</v>
       </c>
@@ -6871,7 +6914,7 @@
       </c>
       <c r="AP70" s="1"/>
     </row>
-    <row r="71" spans="1:42">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>41663</v>
       </c>
@@ -6924,7 +6967,7 @@
       </c>
       <c r="AP71" s="1"/>
     </row>
-    <row r="72" spans="1:42">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>41664</v>
       </c>
@@ -6977,7 +7020,7 @@
       </c>
       <c r="AP72" s="1"/>
     </row>
-    <row r="73" spans="1:42">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>41667</v>
       </c>
@@ -7027,7 +7070,7 @@
       </c>
       <c r="AP73" s="1"/>
     </row>
-    <row r="74" spans="1:42">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>41668</v>
       </c>
@@ -7080,7 +7123,7 @@
       </c>
       <c r="AP74" s="1"/>
     </row>
-    <row r="75" spans="1:42">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>41669</v>
       </c>
@@ -7133,7 +7176,7 @@
       </c>
       <c r="AP75" s="1"/>
     </row>
-    <row r="76" spans="1:42">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>41670</v>
       </c>
@@ -7186,7 +7229,7 @@
       </c>
       <c r="AP76" s="1"/>
     </row>
-    <row r="77" spans="1:42">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>41671</v>
       </c>
@@ -7239,7 +7282,7 @@
       </c>
       <c r="AP77" s="1"/>
     </row>
-    <row r="78" spans="1:42">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>41674</v>
       </c>
@@ -7292,7 +7335,7 @@
       </c>
       <c r="AP78" s="1"/>
     </row>
-    <row r="79" spans="1:42">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>41675</v>
       </c>
@@ -7345,7 +7388,7 @@
       </c>
       <c r="AP79" s="1"/>
     </row>
-    <row r="80" spans="1:42">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>41676</v>
       </c>
@@ -7398,7 +7441,7 @@
       </c>
       <c r="AP80" s="1"/>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>41677</v>
       </c>
@@ -7451,7 +7494,7 @@
       </c>
       <c r="AP81" s="1"/>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>41678</v>
       </c>
@@ -7504,7 +7547,7 @@
       </c>
       <c r="AP82" s="1"/>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>41681</v>
       </c>
@@ -7557,7 +7600,7 @@
       </c>
       <c r="AP83" s="1"/>
     </row>
-    <row r="84" spans="1:42">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>41682</v>
       </c>
@@ -7610,7 +7653,7 @@
       </c>
       <c r="AP84" s="1"/>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>41683</v>
       </c>
@@ -7663,7 +7706,7 @@
       </c>
       <c r="AP85" s="1"/>
     </row>
-    <row r="86" spans="1:42">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>41684</v>
       </c>
@@ -7716,7 +7759,7 @@
       </c>
       <c r="AP86" s="1"/>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>41685</v>
       </c>
@@ -7769,7 +7812,7 @@
       </c>
       <c r="AP87" s="1"/>
     </row>
-    <row r="88" spans="1:42">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>41689</v>
       </c>
@@ -7822,7 +7865,7 @@
       </c>
       <c r="AP88" s="1"/>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>41690</v>
       </c>
@@ -7875,7 +7918,7 @@
       </c>
       <c r="AP89" s="1"/>
     </row>
-    <row r="90" spans="1:42">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>41691</v>
       </c>
@@ -7928,7 +7971,7 @@
       </c>
       <c r="AP90" s="1"/>
     </row>
-    <row r="91" spans="1:42">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>41692</v>
       </c>
@@ -7981,7 +8024,7 @@
       </c>
       <c r="AP91" s="1"/>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>41695</v>
       </c>
@@ -8034,7 +8077,7 @@
       </c>
       <c r="AP92" s="1"/>
     </row>
-    <row r="93" spans="1:42">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>41696</v>
       </c>
@@ -8087,7 +8130,7 @@
       </c>
       <c r="AP93" s="1"/>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>41697</v>
       </c>
@@ -8140,7 +8183,7 @@
       </c>
       <c r="AP94" s="1"/>
     </row>
-    <row r="95" spans="1:42">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>41698</v>
       </c>
@@ -8193,7 +8236,7 @@
       </c>
       <c r="AP95" s="1"/>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>41699</v>
       </c>
@@ -8246,7 +8289,7 @@
       </c>
       <c r="AP96" s="1"/>
     </row>
-    <row r="97" spans="1:42">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>41702</v>
       </c>
@@ -8299,7 +8342,7 @@
       </c>
       <c r="AP97" s="1"/>
     </row>
-    <row r="98" spans="1:42">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>41703</v>
       </c>
@@ -8352,7 +8395,7 @@
       </c>
       <c r="AP98" s="1"/>
     </row>
-    <row r="99" spans="1:42">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>41704</v>
       </c>
@@ -8405,7 +8448,7 @@
       </c>
       <c r="AP99" s="1"/>
     </row>
-    <row r="100" spans="1:42">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>41705</v>
       </c>
@@ -8458,7 +8501,7 @@
       </c>
       <c r="AP100" s="1"/>
     </row>
-    <row r="101" spans="1:42">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>41706</v>
       </c>
@@ -8511,7 +8554,7 @@
       </c>
       <c r="AP101" s="1"/>
     </row>
-    <row r="102" spans="1:42">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>41709</v>
       </c>
@@ -8561,7 +8604,7 @@
       </c>
       <c r="AP102" s="1"/>
     </row>
-    <row r="103" spans="1:42">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>41710</v>
       </c>
@@ -8614,7 +8657,7 @@
       </c>
       <c r="AP103" s="1"/>
     </row>
-    <row r="104" spans="1:42">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>41711</v>
       </c>
@@ -8699,7 +8742,7 @@
       </c>
       <c r="AP104" s="1"/>
     </row>
-    <row r="105" spans="1:42">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>41712</v>
       </c>
@@ -8781,7 +8824,7 @@
       </c>
       <c r="AP105" s="1"/>
     </row>
-    <row r="106" spans="1:42">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>41713</v>
       </c>
@@ -8866,7 +8909,7 @@
       </c>
       <c r="AP106" s="1"/>
     </row>
-    <row r="107" spans="1:42">
+    <row r="107" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>41716</v>
       </c>
@@ -8951,7 +8994,7 @@
       </c>
       <c r="AP107" s="1"/>
     </row>
-    <row r="108" spans="1:42">
+    <row r="108" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>41717</v>
       </c>
@@ -9036,7 +9079,7 @@
       </c>
       <c r="AP108" s="1"/>
     </row>
-    <row r="109" spans="1:42">
+    <row r="109" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>41718</v>
       </c>
@@ -9121,7 +9164,7 @@
       </c>
       <c r="AP109" s="1"/>
     </row>
-    <row r="110" spans="1:42">
+    <row r="110" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>41719</v>
       </c>
@@ -9203,7 +9246,7 @@
       </c>
       <c r="AP110" s="1"/>
     </row>
-    <row r="111" spans="1:42">
+    <row r="111" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>41720</v>
       </c>
@@ -9288,7 +9331,7 @@
       </c>
       <c r="AP111" s="1"/>
     </row>
-    <row r="112" spans="1:42">
+    <row r="112" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>41723</v>
       </c>
@@ -9373,7 +9416,7 @@
       </c>
       <c r="AP112" s="1"/>
     </row>
-    <row r="113" spans="1:42">
+    <row r="113" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>41724</v>
       </c>
@@ -9458,7 +9501,7 @@
       </c>
       <c r="AP113" s="1"/>
     </row>
-    <row r="114" spans="1:42">
+    <row r="114" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>41725</v>
       </c>
@@ -9543,7 +9586,7 @@
       </c>
       <c r="AP114" s="1"/>
     </row>
-    <row r="115" spans="1:42">
+    <row r="115" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>41726</v>
       </c>
@@ -9628,7 +9671,7 @@
       </c>
       <c r="AP115" s="1"/>
     </row>
-    <row r="116" spans="1:42">
+    <row r="116" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>41730</v>
       </c>
@@ -9713,7 +9756,7 @@
       </c>
       <c r="AP116" s="1"/>
     </row>
-    <row r="117" spans="1:42">
+    <row r="117" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>41731</v>
       </c>
@@ -9798,7 +9841,7 @@
       </c>
       <c r="AP117" s="1"/>
     </row>
-    <row r="118" spans="1:42">
+    <row r="118" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>41732</v>
       </c>
@@ -9883,7 +9926,7 @@
       </c>
       <c r="AP118" s="1"/>
     </row>
-    <row r="119" spans="1:42">
+    <row r="119" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>41733</v>
       </c>
@@ -9968,7 +10011,7 @@
       </c>
       <c r="AP119" s="1"/>
     </row>
-    <row r="120" spans="1:42">
+    <row r="120" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>41734</v>
       </c>
@@ -10053,7 +10096,7 @@
       </c>
       <c r="AP120" s="1"/>
     </row>
-    <row r="121" spans="1:42">
+    <row r="121" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>41737</v>
       </c>
@@ -10138,7 +10181,7 @@
       </c>
       <c r="AP121" s="1"/>
     </row>
-    <row r="122" spans="1:42">
+    <row r="122" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>41738</v>
       </c>
@@ -10223,7 +10266,7 @@
       </c>
       <c r="AP122" s="1"/>
     </row>
-    <row r="123" spans="1:42">
+    <row r="123" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>41739</v>
       </c>
@@ -10308,7 +10351,7 @@
       </c>
       <c r="AP123" s="1"/>
     </row>
-    <row r="124" spans="1:42">
+    <row r="124" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>41740</v>
       </c>
@@ -10393,7 +10436,7 @@
       </c>
       <c r="AP124" s="1"/>
     </row>
-    <row r="125" spans="1:42">
+    <row r="125" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>41741</v>
       </c>
@@ -10478,7 +10521,7 @@
       </c>
       <c r="AP125" s="1"/>
     </row>
-    <row r="126" spans="1:42">
+    <row r="126" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>41744</v>
       </c>
@@ -10563,7 +10606,7 @@
       </c>
       <c r="AP126" s="1"/>
     </row>
-    <row r="127" spans="1:42">
+    <row r="127" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>41745</v>
       </c>
@@ -10648,7 +10691,7 @@
       </c>
       <c r="AP127" s="1"/>
     </row>
-    <row r="128" spans="1:42">
+    <row r="128" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>41746</v>
       </c>
@@ -10733,7 +10776,7 @@
       </c>
       <c r="AP128" s="1"/>
     </row>
-    <row r="129" spans="1:42">
+    <row r="129" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>41747</v>
       </c>
@@ -10818,7 +10861,7 @@
       </c>
       <c r="AP129" s="1"/>
     </row>
-    <row r="130" spans="1:42">
+    <row r="130" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>41748</v>
       </c>
@@ -10903,7 +10946,7 @@
       </c>
       <c r="AP130" s="1"/>
     </row>
-    <row r="131" spans="1:42">
+    <row r="131" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>41751</v>
       </c>
@@ -10988,7 +11031,7 @@
       </c>
       <c r="AP131" s="1"/>
     </row>
-    <row r="132" spans="1:42">
+    <row r="132" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>41752</v>
       </c>
@@ -11073,7 +11116,7 @@
       </c>
       <c r="AP132" s="1"/>
     </row>
-    <row r="133" spans="1:42">
+    <row r="133" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>41753</v>
       </c>
@@ -11158,7 +11201,7 @@
       </c>
       <c r="AP133" s="1"/>
     </row>
-    <row r="134" spans="1:42">
+    <row r="134" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>41754</v>
       </c>
@@ -11243,7 +11286,7 @@
       </c>
       <c r="AP134" s="1"/>
     </row>
-    <row r="135" spans="1:42">
+    <row r="135" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>41755</v>
       </c>
@@ -11328,7 +11371,7 @@
       </c>
       <c r="AP135" s="1"/>
     </row>
-    <row r="136" spans="1:42">
+    <row r="136" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>41758</v>
       </c>
@@ -11413,7 +11456,7 @@
       </c>
       <c r="AP136" s="1"/>
     </row>
-    <row r="137" spans="1:42">
+    <row r="137" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>41759</v>
       </c>
@@ -11498,7 +11541,7 @@
       </c>
       <c r="AP137" s="1"/>
     </row>
-    <row r="138" spans="1:42">
+    <row r="138" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>41760</v>
       </c>
@@ -11583,7 +11626,7 @@
       </c>
       <c r="AP138" s="1"/>
     </row>
-    <row r="139" spans="1:42">
+    <row r="139" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>41761</v>
       </c>
@@ -11665,7 +11708,7 @@
       </c>
       <c r="AP139" s="1"/>
     </row>
-    <row r="140" spans="1:42">
+    <row r="140" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>41762</v>
       </c>
@@ -11747,7 +11790,7 @@
       </c>
       <c r="AP140" s="1"/>
     </row>
-    <row r="141" spans="1:42">
+    <row r="141" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>41765</v>
       </c>
@@ -11832,7 +11875,7 @@
       </c>
       <c r="AP141" s="1"/>
     </row>
-    <row r="142" spans="1:42">
+    <row r="142" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>41766</v>
       </c>
@@ -11917,7 +11960,7 @@
       </c>
       <c r="AP142" s="1"/>
     </row>
-    <row r="143" spans="1:42">
+    <row r="143" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>41767</v>
       </c>
@@ -11999,7 +12042,7 @@
       </c>
       <c r="AP143" s="1"/>
     </row>
-    <row r="144" spans="1:42">
+    <row r="144" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>41768</v>
       </c>
@@ -12084,7 +12127,7 @@
       </c>
       <c r="AP144" s="1"/>
     </row>
-    <row r="145" spans="1:42">
+    <row r="145" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>41769</v>
       </c>
@@ -12166,7 +12209,7 @@
       </c>
       <c r="AP145" s="1"/>
     </row>
-    <row r="146" spans="1:42">
+    <row r="146" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>41772</v>
       </c>
@@ -12251,7 +12294,7 @@
       </c>
       <c r="AP146" s="1"/>
     </row>
-    <row r="147" spans="1:42">
+    <row r="147" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>41773</v>
       </c>
@@ -12336,7 +12379,7 @@
       </c>
       <c r="AP147" s="1"/>
     </row>
-    <row r="148" spans="1:42">
+    <row r="148" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>41774</v>
       </c>
@@ -12421,7 +12464,7 @@
       </c>
       <c r="AP148" s="1"/>
     </row>
-    <row r="149" spans="1:42">
+    <row r="149" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>41775</v>
       </c>
@@ -12506,7 +12549,7 @@
       </c>
       <c r="AP149" s="1"/>
     </row>
-    <row r="150" spans="1:42">
+    <row r="150" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>41776</v>
       </c>
@@ -12591,7 +12634,7 @@
       </c>
       <c r="AP150" s="1"/>
     </row>
-    <row r="151" spans="1:42">
+    <row r="151" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>41779</v>
       </c>
@@ -12676,7 +12719,7 @@
       </c>
       <c r="AP151" s="1"/>
     </row>
-    <row r="152" spans="1:42">
+    <row r="152" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>41780</v>
       </c>
@@ -12758,7 +12801,7 @@
       </c>
       <c r="AP152" s="1"/>
     </row>
-    <row r="153" spans="1:42">
+    <row r="153" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>41781</v>
       </c>
@@ -12840,7 +12883,7 @@
       </c>
       <c r="AP153" s="1"/>
     </row>
-    <row r="154" spans="1:42">
+    <row r="154" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>41782</v>
       </c>
@@ -12922,7 +12965,7 @@
       </c>
       <c r="AP154" s="1"/>
     </row>
-    <row r="155" spans="1:42">
+    <row r="155" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>41783</v>
       </c>
@@ -13004,7 +13047,7 @@
       </c>
       <c r="AP155" s="1"/>
     </row>
-    <row r="156" spans="1:42">
+    <row r="156" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>41787</v>
       </c>
@@ -13089,7 +13132,7 @@
       </c>
       <c r="AP156" s="1"/>
     </row>
-    <row r="157" spans="1:42">
+    <row r="157" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>41788</v>
       </c>
@@ -13174,7 +13217,7 @@
       </c>
       <c r="AP157" s="1"/>
     </row>
-    <row r="158" spans="1:42">
+    <row r="158" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>41789</v>
       </c>
@@ -13259,7 +13302,7 @@
       </c>
       <c r="AP158" s="1"/>
     </row>
-    <row r="159" spans="1:42">
+    <row r="159" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>41790</v>
       </c>
@@ -13344,7 +13387,7 @@
       </c>
       <c r="AP159" s="1"/>
     </row>
-    <row r="160" spans="1:42">
+    <row r="160" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>41793</v>
       </c>
@@ -13429,7 +13472,7 @@
       </c>
       <c r="AP160" s="1"/>
     </row>
-    <row r="161" spans="1:42">
+    <row r="161" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>41794</v>
       </c>
@@ -13514,7 +13557,7 @@
       </c>
       <c r="AP161" s="1"/>
     </row>
-    <row r="162" spans="1:42">
+    <row r="162" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>41795</v>
       </c>
@@ -13599,7 +13642,7 @@
       </c>
       <c r="AP162" s="1"/>
     </row>
-    <row r="163" spans="1:42">
+    <row r="163" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>41796</v>
       </c>
@@ -13684,7 +13727,7 @@
       </c>
       <c r="AP163" s="1"/>
     </row>
-    <row r="164" spans="1:42">
+    <row r="164" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>41797</v>
       </c>
@@ -13769,7 +13812,7 @@
       </c>
       <c r="AP164" s="1"/>
     </row>
-    <row r="165" spans="1:42">
+    <row r="165" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>41800</v>
       </c>
@@ -13854,7 +13897,7 @@
       </c>
       <c r="AP165" s="1"/>
     </row>
-    <row r="166" spans="1:42">
+    <row r="166" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>41801</v>
       </c>
@@ -13939,7 +13982,7 @@
       </c>
       <c r="AP166" s="1"/>
     </row>
-    <row r="167" spans="1:42">
+    <row r="167" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>41802</v>
       </c>
@@ -14024,7 +14067,7 @@
       </c>
       <c r="AP167" s="1"/>
     </row>
-    <row r="168" spans="1:42">
+    <row r="168" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>41803</v>
       </c>
@@ -14109,7 +14152,7 @@
       </c>
       <c r="AP168" s="1"/>
     </row>
-    <row r="169" spans="1:42">
+    <row r="169" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>41804</v>
       </c>
@@ -14194,7 +14237,7 @@
       </c>
       <c r="AP169" s="1"/>
     </row>
-    <row r="170" spans="1:42">
+    <row r="170" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>41807</v>
       </c>
@@ -14279,7 +14322,7 @@
       </c>
       <c r="AP170" s="1"/>
     </row>
-    <row r="171" spans="1:42">
+    <row r="171" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>41808</v>
       </c>
@@ -14364,7 +14407,7 @@
       </c>
       <c r="AP171" s="1"/>
     </row>
-    <row r="172" spans="1:42">
+    <row r="172" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>41809</v>
       </c>
@@ -14449,7 +14492,7 @@
       </c>
       <c r="AP172" s="1"/>
     </row>
-    <row r="173" spans="1:42">
+    <row r="173" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>41810</v>
       </c>
@@ -14534,7 +14577,7 @@
       </c>
       <c r="AP173" s="1"/>
     </row>
-    <row r="174" spans="1:42">
+    <row r="174" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>41811</v>
       </c>
@@ -14619,7 +14662,7 @@
       </c>
       <c r="AP174" s="1"/>
     </row>
-    <row r="175" spans="1:42">
+    <row r="175" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>41814</v>
       </c>
@@ -14704,7 +14747,7 @@
       </c>
       <c r="AP175" s="1"/>
     </row>
-    <row r="176" spans="1:42">
+    <row r="176" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>41815</v>
       </c>
@@ -14789,7 +14832,7 @@
       </c>
       <c r="AP176" s="1"/>
     </row>
-    <row r="177" spans="1:42">
+    <row r="177" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>41816</v>
       </c>
@@ -14874,7 +14917,7 @@
       </c>
       <c r="AP177" s="1"/>
     </row>
-    <row r="178" spans="1:42">
+    <row r="178" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>41817</v>
       </c>
@@ -14959,7 +15002,7 @@
       </c>
       <c r="AP178" s="1"/>
     </row>
-    <row r="179" spans="1:42">
+    <row r="179" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>41818</v>
       </c>
@@ -15044,7 +15087,7 @@
       </c>
       <c r="AP179" s="1"/>
     </row>
-    <row r="180" spans="1:42">
+    <row r="180" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>41821</v>
       </c>
@@ -15129,7 +15172,7 @@
       </c>
       <c r="AP180" s="1"/>
     </row>
-    <row r="181" spans="1:42">
+    <row r="181" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>41822</v>
       </c>
@@ -15214,7 +15257,7 @@
       </c>
       <c r="AP181" s="1"/>
     </row>
-    <row r="182" spans="1:42">
+    <row r="182" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>41824</v>
       </c>
@@ -15299,7 +15342,7 @@
       </c>
       <c r="AP182" s="1"/>
     </row>
-    <row r="183" spans="1:42">
+    <row r="183" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>41825</v>
       </c>
@@ -15384,7 +15427,7 @@
       </c>
       <c r="AP183" s="1"/>
     </row>
-    <row r="184" spans="1:42">
+    <row r="184" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>41828</v>
       </c>
@@ -15469,7 +15512,7 @@
       </c>
       <c r="AP184" s="1"/>
     </row>
-    <row r="185" spans="1:42">
+    <row r="185" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>41829</v>
       </c>
@@ -15554,7 +15597,7 @@
       </c>
       <c r="AP185" s="1"/>
     </row>
-    <row r="186" spans="1:42">
+    <row r="186" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>41830</v>
       </c>
@@ -15639,7 +15682,7 @@
       </c>
       <c r="AP186" s="1"/>
     </row>
-    <row r="187" spans="1:42">
+    <row r="187" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>41831</v>
       </c>
@@ -15724,7 +15767,7 @@
       </c>
       <c r="AP187" s="1"/>
     </row>
-    <row r="188" spans="1:42">
+    <row r="188" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>41832</v>
       </c>
@@ -15809,7 +15852,7 @@
       </c>
       <c r="AP188" s="1"/>
     </row>
-    <row r="189" spans="1:42">
+    <row r="189" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>41835</v>
       </c>
@@ -15894,7 +15937,7 @@
       </c>
       <c r="AP189" s="1"/>
     </row>
-    <row r="190" spans="1:42">
+    <row r="190" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>41836</v>
       </c>
@@ -15979,7 +16022,7 @@
       </c>
       <c r="AP190" s="1"/>
     </row>
-    <row r="191" spans="1:42">
+    <row r="191" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>41837</v>
       </c>
@@ -16064,7 +16107,7 @@
       </c>
       <c r="AP191" s="1"/>
     </row>
-    <row r="192" spans="1:42">
+    <row r="192" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>41838</v>
       </c>
@@ -16149,7 +16192,7 @@
       </c>
       <c r="AP192" s="1"/>
     </row>
-    <row r="193" spans="1:42">
+    <row r="193" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>41839</v>
       </c>
@@ -16234,7 +16277,7 @@
       </c>
       <c r="AP193" s="1"/>
     </row>
-    <row r="194" spans="1:42">
+    <row r="194" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>41842</v>
       </c>
@@ -16319,7 +16362,7 @@
       </c>
       <c r="AP194" s="1"/>
     </row>
-    <row r="195" spans="1:42">
+    <row r="195" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>41843</v>
       </c>
@@ -16404,7 +16447,7 @@
       </c>
       <c r="AP195" s="1"/>
     </row>
-    <row r="196" spans="1:42">
+    <row r="196" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>41844</v>
       </c>
@@ -16489,7 +16532,7 @@
       </c>
       <c r="AP196" s="1"/>
     </row>
-    <row r="197" spans="1:42">
+    <row r="197" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>41845</v>
       </c>
@@ -16574,7 +16617,7 @@
       </c>
       <c r="AP197" s="1"/>
     </row>
-    <row r="198" spans="1:42">
+    <row r="198" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>41846</v>
       </c>
@@ -16659,7 +16702,7 @@
       </c>
       <c r="AP198" s="1"/>
     </row>
-    <row r="199" spans="1:42">
+    <row r="199" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>41849</v>
       </c>
@@ -16744,7 +16787,7 @@
       </c>
       <c r="AP199" s="1"/>
     </row>
-    <row r="200" spans="1:42">
+    <row r="200" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>41850</v>
       </c>
@@ -16829,7 +16872,7 @@
       </c>
       <c r="AP200" s="1"/>
     </row>
-    <row r="201" spans="1:42">
+    <row r="201" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>41851</v>
       </c>
@@ -16914,7 +16957,7 @@
       </c>
       <c r="AP201" s="1"/>
     </row>
-    <row r="202" spans="1:42">
+    <row r="202" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>41852</v>
       </c>
@@ -16999,7 +17042,7 @@
       </c>
       <c r="AP202" s="1"/>
     </row>
-    <row r="203" spans="1:42">
+    <row r="203" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>41853</v>
       </c>
@@ -17084,7 +17127,7 @@
       </c>
       <c r="AP203" s="1"/>
     </row>
-    <row r="204" spans="1:42">
+    <row r="204" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>41856</v>
       </c>
@@ -17166,7 +17209,7 @@
       </c>
       <c r="AP204" s="1"/>
     </row>
-    <row r="205" spans="1:42">
+    <row r="205" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>41857</v>
       </c>
@@ -17251,7 +17294,7 @@
       </c>
       <c r="AP205" s="1"/>
     </row>
-    <row r="206" spans="1:42">
+    <row r="206" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>41858</v>
       </c>
@@ -17336,7 +17379,7 @@
       </c>
       <c r="AP206" s="1"/>
     </row>
-    <row r="207" spans="1:42">
+    <row r="207" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>41859</v>
       </c>
@@ -17421,7 +17464,7 @@
       </c>
       <c r="AP207" s="1"/>
     </row>
-    <row r="208" spans="1:42">
+    <row r="208" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>41860</v>
       </c>
@@ -17506,7 +17549,7 @@
       </c>
       <c r="AP208" s="1"/>
     </row>
-    <row r="209" spans="1:42">
+    <row r="209" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>41863</v>
       </c>
@@ -17591,7 +17634,7 @@
       </c>
       <c r="AP209" s="1"/>
     </row>
-    <row r="210" spans="1:42">
+    <row r="210" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>41864</v>
       </c>
@@ -17676,7 +17719,7 @@
       </c>
       <c r="AP210" s="1"/>
     </row>
-    <row r="211" spans="1:42">
+    <row r="211" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>41865</v>
       </c>
@@ -17761,7 +17804,7 @@
       </c>
       <c r="AP211" s="1"/>
     </row>
-    <row r="212" spans="1:42">
+    <row r="212" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>41866</v>
       </c>
@@ -17846,7 +17889,7 @@
       </c>
       <c r="AP212" s="1"/>
     </row>
-    <row r="213" spans="1:42">
+    <row r="213" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>41867</v>
       </c>
@@ -17931,7 +17974,7 @@
       </c>
       <c r="AP213" s="1"/>
     </row>
-    <row r="214" spans="1:42">
+    <row r="214" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>41870</v>
       </c>
@@ -18016,7 +18059,7 @@
       </c>
       <c r="AP214" s="1"/>
     </row>
-    <row r="215" spans="1:42">
+    <row r="215" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>41871</v>
       </c>
@@ -18101,7 +18144,7 @@
       </c>
       <c r="AP215" s="1"/>
     </row>
-    <row r="216" spans="1:42">
+    <row r="216" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>41872</v>
       </c>
@@ -18186,7 +18229,7 @@
       </c>
       <c r="AP216" s="1"/>
     </row>
-    <row r="217" spans="1:42">
+    <row r="217" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>41873</v>
       </c>
@@ -18271,7 +18314,7 @@
       </c>
       <c r="AP217" s="1"/>
     </row>
-    <row r="218" spans="1:42">
+    <row r="218" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>41874</v>
       </c>
@@ -18353,7 +18396,7 @@
       </c>
       <c r="AP218" s="1"/>
     </row>
-    <row r="219" spans="1:42">
+    <row r="219" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>41877</v>
       </c>
@@ -18438,7 +18481,7 @@
       </c>
       <c r="AP219" s="1"/>
     </row>
-    <row r="220" spans="1:42">
+    <row r="220" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>41878</v>
       </c>
@@ -18523,7 +18566,7 @@
       </c>
       <c r="AP220" s="1"/>
     </row>
-    <row r="221" spans="1:42">
+    <row r="221" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>41879</v>
       </c>
@@ -18608,7 +18651,7 @@
       </c>
       <c r="AP221" s="1"/>
     </row>
-    <row r="222" spans="1:42">
+    <row r="222" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>41880</v>
       </c>
@@ -18693,7 +18736,7 @@
       </c>
       <c r="AP222" s="1"/>
     </row>
-    <row r="223" spans="1:42">
+    <row r="223" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>41881</v>
       </c>
@@ -18778,7 +18821,7 @@
       </c>
       <c r="AP223" s="1"/>
     </row>
-    <row r="224" spans="1:42">
+    <row r="224" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>41885</v>
       </c>
@@ -18863,7 +18906,7 @@
       </c>
       <c r="AP224" s="1"/>
     </row>
-    <row r="225" spans="1:42">
+    <row r="225" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>41886</v>
       </c>
@@ -18948,7 +18991,7 @@
       </c>
       <c r="AP225" s="1"/>
     </row>
-    <row r="226" spans="1:42">
+    <row r="226" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>41887</v>
       </c>
@@ -19033,7 +19076,7 @@
       </c>
       <c r="AP226" s="1"/>
     </row>
-    <row r="227" spans="1:42">
+    <row r="227" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>41888</v>
       </c>
@@ -19118,7 +19161,7 @@
       </c>
       <c r="AP227" s="1"/>
     </row>
-    <row r="228" spans="1:42">
+    <row r="228" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>41891</v>
       </c>
@@ -19203,7 +19246,7 @@
       </c>
       <c r="AP228" s="1"/>
     </row>
-    <row r="229" spans="1:42">
+    <row r="229" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>41892</v>
       </c>
@@ -19288,7 +19331,7 @@
       </c>
       <c r="AP229" s="1"/>
     </row>
-    <row r="230" spans="1:42">
+    <row r="230" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>41893</v>
       </c>
@@ -19373,7 +19416,7 @@
       </c>
       <c r="AP230" s="1"/>
     </row>
-    <row r="231" spans="1:42">
+    <row r="231" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>41894</v>
       </c>
@@ -19458,7 +19501,7 @@
       </c>
       <c r="AP231" s="1"/>
     </row>
-    <row r="232" spans="1:42">
+    <row r="232" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>41895</v>
       </c>
@@ -19543,7 +19586,7 @@
       </c>
       <c r="AP232" s="1"/>
     </row>
-    <row r="233" spans="1:42">
+    <row r="233" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>41898</v>
       </c>
@@ -19628,7 +19671,7 @@
       </c>
       <c r="AP233" s="1"/>
     </row>
-    <row r="234" spans="1:42">
+    <row r="234" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>41899</v>
       </c>
@@ -19713,7 +19756,7 @@
       </c>
       <c r="AP234" s="1"/>
     </row>
-    <row r="235" spans="1:42">
+    <row r="235" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>41900</v>
       </c>
@@ -19798,7 +19841,7 @@
       </c>
       <c r="AP235" s="1"/>
     </row>
-    <row r="236" spans="1:42">
+    <row r="236" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>41901</v>
       </c>
@@ -19883,7 +19926,7 @@
       </c>
       <c r="AP236" s="1"/>
     </row>
-    <row r="237" spans="1:42">
+    <row r="237" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>41902</v>
       </c>
@@ -19968,7 +20011,7 @@
       </c>
       <c r="AP237" s="1"/>
     </row>
-    <row r="238" spans="1:42">
+    <row r="238" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>41905</v>
       </c>
@@ -20053,7 +20096,7 @@
       </c>
       <c r="AP238" s="1"/>
     </row>
-    <row r="239" spans="1:42">
+    <row r="239" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>41906</v>
       </c>
@@ -20138,7 +20181,7 @@
       </c>
       <c r="AP239" s="1"/>
     </row>
-    <row r="240" spans="1:42">
+    <row r="240" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>41907</v>
       </c>
@@ -20223,7 +20266,7 @@
       </c>
       <c r="AP240" s="1"/>
     </row>
-    <row r="241" spans="1:42">
+    <row r="241" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>41908</v>
       </c>
@@ -20308,7 +20351,7 @@
       </c>
       <c r="AP241" s="1"/>
     </row>
-    <row r="242" spans="1:42">
+    <row r="242" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>41909</v>
       </c>
@@ -20393,7 +20436,7 @@
       </c>
       <c r="AP242" s="1"/>
     </row>
-    <row r="243" spans="1:42">
+    <row r="243" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>41912</v>
       </c>
@@ -20478,7 +20521,7 @@
       </c>
       <c r="AP243" s="1"/>
     </row>
-    <row r="244" spans="1:42">
+    <row r="244" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>41913</v>
       </c>
@@ -20563,7 +20606,7 @@
       </c>
       <c r="AP244" s="1"/>
     </row>
-    <row r="245" spans="1:42">
+    <row r="245" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>41914</v>
       </c>
@@ -20648,7 +20691,7 @@
       </c>
       <c r="AP245" s="1"/>
     </row>
-    <row r="246" spans="1:42">
+    <row r="246" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>41915</v>
       </c>
@@ -20733,7 +20776,7 @@
       </c>
       <c r="AP246" s="1"/>
     </row>
-    <row r="247" spans="1:42">
+    <row r="247" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>41916</v>
       </c>
@@ -20818,7 +20861,7 @@
       </c>
       <c r="AP247" s="1"/>
     </row>
-    <row r="248" spans="1:42">
+    <row r="248" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>41919</v>
       </c>
@@ -20903,7 +20946,7 @@
       </c>
       <c r="AP248" s="1"/>
     </row>
-    <row r="249" spans="1:42">
+    <row r="249" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>41920</v>
       </c>
@@ -20988,7 +21031,7 @@
       </c>
       <c r="AP249" s="1"/>
     </row>
-    <row r="250" spans="1:42">
+    <row r="250" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>41921</v>
       </c>
@@ -21073,7 +21116,7 @@
       </c>
       <c r="AP250" s="1"/>
     </row>
-    <row r="251" spans="1:42">
+    <row r="251" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>41922</v>
       </c>
@@ -21158,7 +21201,7 @@
       </c>
       <c r="AP251" s="1"/>
     </row>
-    <row r="252" spans="1:42">
+    <row r="252" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>41923</v>
       </c>
@@ -21243,7 +21286,7 @@
       </c>
       <c r="AP252" s="1"/>
     </row>
-    <row r="253" spans="1:42">
+    <row r="253" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>41926</v>
       </c>
@@ -21328,7 +21371,7 @@
       </c>
       <c r="AP253" s="1"/>
     </row>
-    <row r="254" spans="1:42">
+    <row r="254" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>41927</v>
       </c>
@@ -21413,7 +21456,7 @@
       </c>
       <c r="AP254" s="1"/>
     </row>
-    <row r="255" spans="1:42">
+    <row r="255" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>41928</v>
       </c>
@@ -21495,7 +21538,7 @@
       </c>
       <c r="AP255" s="1"/>
     </row>
-    <row r="256" spans="1:42">
+    <row r="256" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>41929</v>
       </c>
@@ -21577,7 +21620,7 @@
       </c>
       <c r="AP256" s="1"/>
     </row>
-    <row r="257" spans="1:42">
+    <row r="257" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>41930</v>
       </c>
@@ -21662,7 +21705,7 @@
       </c>
       <c r="AP257" s="1"/>
     </row>
-    <row r="258" spans="1:42">
+    <row r="258" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>41933</v>
       </c>
@@ -21747,7 +21790,7 @@
       </c>
       <c r="AP258" s="1"/>
     </row>
-    <row r="259" spans="1:42">
+    <row r="259" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>41934</v>
       </c>
@@ -21832,7 +21875,7 @@
       </c>
       <c r="AP259" s="1"/>
     </row>
-    <row r="260" spans="1:42">
+    <row r="260" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>41935</v>
       </c>
@@ -21917,7 +21960,7 @@
       </c>
       <c r="AP260" s="1"/>
     </row>
-    <row r="261" spans="1:42">
+    <row r="261" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>41936</v>
       </c>
@@ -22002,7 +22045,7 @@
       </c>
       <c r="AP261" s="1"/>
     </row>
-    <row r="262" spans="1:42">
+    <row r="262" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>41937</v>
       </c>
@@ -22084,7 +22127,7 @@
       </c>
       <c r="AP262" s="1"/>
     </row>
-    <row r="263" spans="1:42">
+    <row r="263" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>41940</v>
       </c>
@@ -22169,7 +22212,7 @@
       </c>
       <c r="AP263" s="1"/>
     </row>
-    <row r="264" spans="1:42">
+    <row r="264" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>41941</v>
       </c>
@@ -22254,7 +22297,7 @@
       </c>
       <c r="AP264" s="1"/>
     </row>
-    <row r="265" spans="1:42">
+    <row r="265" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>41942</v>
       </c>
@@ -22339,7 +22382,7 @@
       </c>
       <c r="AP265" s="1"/>
     </row>
-    <row r="266" spans="1:42">
+    <row r="266" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>41943</v>
       </c>
@@ -22424,7 +22467,7 @@
       </c>
       <c r="AP266" s="1"/>
     </row>
-    <row r="267" spans="1:42">
+    <row r="267" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>41944</v>
       </c>
@@ -22509,7 +22552,7 @@
       </c>
       <c r="AP267" s="1"/>
     </row>
-    <row r="268" spans="1:42">
+    <row r="268" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>41947</v>
       </c>
@@ -22594,7 +22637,7 @@
       </c>
       <c r="AP268" s="1"/>
     </row>
-    <row r="269" spans="1:42">
+    <row r="269" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>41948</v>
       </c>
@@ -22679,7 +22722,7 @@
       </c>
       <c r="AP269" s="1"/>
     </row>
-    <row r="270" spans="1:42">
+    <row r="270" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>41949</v>
       </c>
@@ -22764,7 +22807,7 @@
       </c>
       <c r="AP270" s="1"/>
     </row>
-    <row r="271" spans="1:42">
+    <row r="271" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>41950</v>
       </c>
@@ -22849,7 +22892,7 @@
       </c>
       <c r="AP271" s="1"/>
     </row>
-    <row r="272" spans="1:42">
+    <row r="272" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>41951</v>
       </c>
@@ -22931,7 +22974,7 @@
       </c>
       <c r="AP272" s="1"/>
     </row>
-    <row r="273" spans="1:42">
+    <row r="273" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>41954</v>
       </c>
@@ -23016,7 +23059,7 @@
       </c>
       <c r="AP273" s="1"/>
     </row>
-    <row r="274" spans="1:42">
+    <row r="274" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>41955</v>
       </c>
@@ -23098,7 +23141,7 @@
       </c>
       <c r="AP274" s="1"/>
     </row>
-    <row r="275" spans="1:42">
+    <row r="275" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>41956</v>
       </c>
@@ -23183,7 +23226,7 @@
       </c>
       <c r="AP275" s="1"/>
     </row>
-    <row r="276" spans="1:42">
+    <row r="276" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>41957</v>
       </c>
@@ -23268,7 +23311,7 @@
       </c>
       <c r="AP276" s="1"/>
     </row>
-    <row r="277" spans="1:42">
+    <row r="277" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>41958</v>
       </c>
@@ -23353,7 +23396,7 @@
       </c>
       <c r="AP277" s="1"/>
     </row>
-    <row r="278" spans="1:42">
+    <row r="278" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>41961</v>
       </c>
@@ -23438,7 +23481,7 @@
       </c>
       <c r="AP278" s="1"/>
     </row>
-    <row r="279" spans="1:42">
+    <row r="279" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>41962</v>
       </c>
@@ -23523,7 +23566,7 @@
       </c>
       <c r="AP279" s="1"/>
     </row>
-    <row r="280" spans="1:42">
+    <row r="280" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>41963</v>
       </c>
@@ -23605,7 +23648,7 @@
       </c>
       <c r="AP280" s="1"/>
     </row>
-    <row r="281" spans="1:42">
+    <row r="281" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>41965</v>
       </c>
@@ -23690,7 +23733,7 @@
       </c>
       <c r="AP281" s="1"/>
     </row>
-    <row r="282" spans="1:42">
+    <row r="282" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>41968</v>
       </c>
@@ -23775,7 +23818,7 @@
       </c>
       <c r="AP282" s="1"/>
     </row>
-    <row r="283" spans="1:42">
+    <row r="283" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>41969</v>
       </c>
@@ -23860,7 +23903,7 @@
       </c>
       <c r="AP283" s="1"/>
     </row>
-    <row r="284" spans="1:42">
+    <row r="284" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>41970</v>
       </c>
@@ -23945,7 +23988,7 @@
       </c>
       <c r="AP284" s="1"/>
     </row>
-    <row r="285" spans="1:42">
+    <row r="285" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>41971</v>
       </c>
@@ -24030,7 +24073,7 @@
       </c>
       <c r="AP285" s="1"/>
     </row>
-    <row r="286" spans="1:42">
+    <row r="286" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>41972</v>
       </c>
@@ -24115,7 +24158,7 @@
       </c>
       <c r="AP286" s="1"/>
     </row>
-    <row r="287" spans="1:42">
+    <row r="287" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>41975</v>
       </c>
@@ -24200,7 +24243,7 @@
       </c>
       <c r="AP287" s="1"/>
     </row>
-    <row r="288" spans="1:42">
+    <row r="288" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>41976</v>
       </c>
@@ -24285,7 +24328,7 @@
       </c>
       <c r="AP288" s="1"/>
     </row>
-    <row r="289" spans="1:42">
+    <row r="289" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>41977</v>
       </c>
@@ -24367,7 +24410,7 @@
       </c>
       <c r="AP289" s="1"/>
     </row>
-    <row r="290" spans="1:42">
+    <row r="290" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>41978</v>
       </c>
@@ -24452,7 +24495,7 @@
       </c>
       <c r="AP290" s="1"/>
     </row>
-    <row r="291" spans="1:42">
+    <row r="291" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>41979</v>
       </c>
@@ -24537,7 +24580,7 @@
       </c>
       <c r="AP291" s="1"/>
     </row>
-    <row r="292" spans="1:42">
+    <row r="292" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>41982</v>
       </c>
@@ -24622,7 +24665,7 @@
       </c>
       <c r="AP292" s="1"/>
     </row>
-    <row r="293" spans="1:42">
+    <row r="293" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>41983</v>
       </c>
@@ -24707,7 +24750,7 @@
       </c>
       <c r="AP293" s="1"/>
     </row>
-    <row r="294" spans="1:42">
+    <row r="294" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>41984</v>
       </c>
@@ -24792,7 +24835,7 @@
       </c>
       <c r="AP294" s="1"/>
     </row>
-    <row r="295" spans="1:42">
+    <row r="295" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>41985</v>
       </c>
@@ -24877,7 +24920,7 @@
       </c>
       <c r="AP295" s="1"/>
     </row>
-    <row r="296" spans="1:42">
+    <row r="296" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>41986</v>
       </c>
@@ -24962,7 +25005,7 @@
       </c>
       <c r="AP296" s="1"/>
     </row>
-    <row r="297" spans="1:42">
+    <row r="297" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>41989</v>
       </c>
@@ -25047,7 +25090,7 @@
       </c>
       <c r="AP297" s="1"/>
     </row>
-    <row r="298" spans="1:42">
+    <row r="298" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>41990</v>
       </c>
@@ -25132,7 +25175,7 @@
       </c>
       <c r="AP298" s="1"/>
     </row>
-    <row r="299" spans="1:42">
+    <row r="299" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>41991</v>
       </c>
@@ -25217,7 +25260,7 @@
       </c>
       <c r="AP299" s="1"/>
     </row>
-    <row r="300" spans="1:42">
+    <row r="300" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>41992</v>
       </c>
@@ -25302,7 +25345,7 @@
       </c>
       <c r="AP300" s="1"/>
     </row>
-    <row r="301" spans="1:42">
+    <row r="301" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>41993</v>
       </c>
@@ -25387,7 +25430,7 @@
       </c>
       <c r="AP301" s="1"/>
     </row>
-    <row r="302" spans="1:42">
+    <row r="302" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>41996</v>
       </c>
@@ -25472,7 +25515,7 @@
       </c>
       <c r="AP302" s="1"/>
     </row>
-    <row r="303" spans="1:42">
+    <row r="303" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>41998</v>
       </c>
@@ -25557,7 +25600,7 @@
       </c>
       <c r="AP303" s="1"/>
     </row>
-    <row r="304" spans="1:42">
+    <row r="304" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>41999</v>
       </c>
@@ -25642,7 +25685,7 @@
       </c>
       <c r="AP304" s="1"/>
     </row>
-    <row r="305" spans="1:42">
+    <row r="305" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>42000</v>
       </c>
@@ -25727,7 +25770,7 @@
       </c>
       <c r="AP305" s="1"/>
     </row>
-    <row r="306" spans="1:42">
+    <row r="306" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>42003</v>
       </c>
@@ -25812,7 +25855,7 @@
       </c>
       <c r="AP306" s="1"/>
     </row>
-    <row r="307" spans="1:42">
+    <row r="307" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>42005</v>
       </c>
@@ -25897,7 +25940,7 @@
       </c>
       <c r="AP307" s="1"/>
     </row>
-    <row r="308" spans="1:42">
+    <row r="308" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>42006</v>
       </c>
@@ -25982,7 +26025,7 @@
       </c>
       <c r="AP308" s="1"/>
     </row>
-    <row r="309" spans="1:42">
+    <row r="309" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>42007</v>
       </c>
@@ -26067,7 +26110,7 @@
       </c>
       <c r="AP309" s="1"/>
     </row>
-    <row r="310" spans="1:42">
+    <row r="310" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>42010</v>
       </c>
@@ -26152,7 +26195,7 @@
       </c>
       <c r="AP310" s="1"/>
     </row>
-    <row r="311" spans="1:42">
+    <row r="311" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>42011</v>
       </c>
@@ -26237,7 +26280,7 @@
       </c>
       <c r="AP311" s="1"/>
     </row>
-    <row r="312" spans="1:42">
+    <row r="312" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>42012</v>
       </c>
@@ -26322,7 +26365,7 @@
       </c>
       <c r="AP312" s="1"/>
     </row>
-    <row r="313" spans="1:42">
+    <row r="313" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>42013</v>
       </c>
@@ -26407,7 +26450,7 @@
       </c>
       <c r="AP313" s="1"/>
     </row>
-    <row r="314" spans="1:42">
+    <row r="314" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>42014</v>
       </c>
@@ -26492,7 +26535,7 @@
       </c>
       <c r="AP314" s="1"/>
     </row>
-    <row r="315" spans="1:42">
+    <row r="315" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>42017</v>
       </c>
@@ -26577,7 +26620,7 @@
       </c>
       <c r="AP315" s="1"/>
     </row>
-    <row r="316" spans="1:42">
+    <row r="316" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>42018</v>
       </c>
@@ -26662,7 +26705,7 @@
       </c>
       <c r="AP316" s="1"/>
     </row>
-    <row r="317" spans="1:42">
+    <row r="317" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>42019</v>
       </c>
@@ -26747,7 +26790,7 @@
       </c>
       <c r="AP317" s="1"/>
     </row>
-    <row r="318" spans="1:42">
+    <row r="318" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>42020</v>
       </c>
@@ -26832,7 +26875,7 @@
       </c>
       <c r="AP318" s="1"/>
     </row>
-    <row r="319" spans="1:42">
+    <row r="319" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>42021</v>
       </c>
@@ -26917,7 +26960,7 @@
       </c>
       <c r="AP319" s="1"/>
     </row>
-    <row r="320" spans="1:42">
+    <row r="320" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>42025</v>
       </c>
@@ -27002,7 +27045,7 @@
       </c>
       <c r="AP320" s="1"/>
     </row>
-    <row r="321" spans="1:42">
+    <row r="321" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>42026</v>
       </c>
@@ -27087,7 +27130,7 @@
       </c>
       <c r="AP321" s="1"/>
     </row>
-    <row r="322" spans="1:42">
+    <row r="322" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>42027</v>
       </c>
@@ -27172,7 +27215,7 @@
       </c>
       <c r="AP322" s="1"/>
     </row>
-    <row r="323" spans="1:42">
+    <row r="323" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>42028</v>
       </c>
@@ -27257,7 +27300,7 @@
       </c>
       <c r="AP323" s="1"/>
     </row>
-    <row r="324" spans="1:42">
+    <row r="324" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>42031</v>
       </c>
@@ -27342,7 +27385,7 @@
       </c>
       <c r="AP324" s="1"/>
     </row>
-    <row r="325" spans="1:42">
+    <row r="325" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>42032</v>
       </c>
@@ -27427,7 +27470,7 @@
       </c>
       <c r="AP325" s="1"/>
     </row>
-    <row r="326" spans="1:42">
+    <row r="326" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>42033</v>
       </c>
@@ -27512,7 +27555,7 @@
       </c>
       <c r="AP326" s="1"/>
     </row>
-    <row r="327" spans="1:42">
+    <row r="327" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>42034</v>
       </c>
@@ -27597,7 +27640,7 @@
       </c>
       <c r="AP327" s="1"/>
     </row>
-    <row r="328" spans="1:42">
+    <row r="328" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>42035</v>
       </c>
@@ -27682,7 +27725,7 @@
       </c>
       <c r="AP328" s="1"/>
     </row>
-    <row r="329" spans="1:42">
+    <row r="329" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>42038</v>
       </c>
@@ -27767,7 +27810,7 @@
       </c>
       <c r="AP329" s="1"/>
     </row>
-    <row r="330" spans="1:42">
+    <row r="330" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>42039</v>
       </c>
@@ -27852,7 +27895,7 @@
       </c>
       <c r="AP330" s="1"/>
     </row>
-    <row r="331" spans="1:42">
+    <row r="331" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>42040</v>
       </c>
@@ -27937,7 +27980,7 @@
       </c>
       <c r="AP331" s="1"/>
     </row>
-    <row r="332" spans="1:42">
+    <row r="332" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>42041</v>
       </c>
@@ -28022,7 +28065,7 @@
       </c>
       <c r="AP332" s="1"/>
     </row>
-    <row r="333" spans="1:42">
+    <row r="333" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>42042</v>
       </c>
@@ -28107,7 +28150,7 @@
       </c>
       <c r="AP333" s="1"/>
     </row>
-    <row r="334" spans="1:42">
+    <row r="334" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>42045</v>
       </c>
@@ -28192,7 +28235,7 @@
       </c>
       <c r="AP334" s="1"/>
     </row>
-    <row r="335" spans="1:42">
+    <row r="335" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>42046</v>
       </c>
@@ -28277,7 +28320,7 @@
       </c>
       <c r="AP335" s="1"/>
     </row>
-    <row r="336" spans="1:42">
+    <row r="336" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>42047</v>
       </c>
@@ -28362,7 +28405,7 @@
       </c>
       <c r="AP336" s="1"/>
     </row>
-    <row r="337" spans="1:42">
+    <row r="337" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>42048</v>
       </c>
@@ -28447,7 +28490,7 @@
       </c>
       <c r="AP337" s="1"/>
     </row>
-    <row r="338" spans="1:42">
+    <row r="338" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>42049</v>
       </c>
@@ -28532,7 +28575,7 @@
       </c>
       <c r="AP338" s="1"/>
     </row>
-    <row r="339" spans="1:42">
+    <row r="339" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>42053</v>
       </c>
@@ -28617,7 +28660,7 @@
       </c>
       <c r="AP339" s="1"/>
     </row>
-    <row r="340" spans="1:42">
+    <row r="340" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>42054</v>
       </c>
@@ -28702,7 +28745,7 @@
       </c>
       <c r="AP340" s="1"/>
     </row>
-    <row r="341" spans="1:42">
+    <row r="341" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>42055</v>
       </c>
@@ -28787,7 +28830,7 @@
       </c>
       <c r="AP341" s="1"/>
     </row>
-    <row r="342" spans="1:42">
+    <row r="342" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>42056</v>
       </c>
@@ -28872,7 +28915,7 @@
       </c>
       <c r="AP342" s="1"/>
     </row>
-    <row r="343" spans="1:42">
+    <row r="343" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>42059</v>
       </c>
@@ -28957,7 +29000,7 @@
       </c>
       <c r="AP343" s="1"/>
     </row>
-    <row r="344" spans="1:42">
+    <row r="344" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>42060</v>
       </c>
@@ -29042,7 +29085,7 @@
       </c>
       <c r="AP344" s="1"/>
     </row>
-    <row r="345" spans="1:42">
+    <row r="345" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>42061</v>
       </c>
@@ -29127,7 +29170,7 @@
       </c>
       <c r="AP345" s="1"/>
     </row>
-    <row r="346" spans="1:42">
+    <row r="346" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>42062</v>
       </c>
@@ -29212,7 +29255,7 @@
       </c>
       <c r="AP346" s="1"/>
     </row>
-    <row r="347" spans="1:42">
+    <row r="347" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>42063</v>
       </c>
@@ -29297,7 +29340,7 @@
       </c>
       <c r="AP347" s="1"/>
     </row>
-    <row r="348" spans="1:42">
+    <row r="348" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>42066</v>
       </c>
@@ -29382,7 +29425,7 @@
       </c>
       <c r="AP348" s="1"/>
     </row>
-    <row r="349" spans="1:42">
+    <row r="349" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>42067</v>
       </c>
@@ -29467,7 +29510,7 @@
       </c>
       <c r="AP349" s="1"/>
     </row>
-    <row r="350" spans="1:42">
+    <row r="350" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>42068</v>
       </c>
@@ -29552,7 +29595,7 @@
       </c>
       <c r="AP350" s="1"/>
     </row>
-    <row r="351" spans="1:42">
+    <row r="351" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>42069</v>
       </c>
@@ -29637,7 +29680,7 @@
       </c>
       <c r="AP351" s="1"/>
     </row>
-    <row r="352" spans="1:42">
+    <row r="352" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>42070</v>
       </c>
@@ -29722,7 +29765,7 @@
       </c>
       <c r="AP352" s="1"/>
     </row>
-    <row r="353" spans="1:42">
+    <row r="353" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>42073</v>
       </c>
@@ -29807,7 +29850,7 @@
       </c>
       <c r="AP353" s="1"/>
     </row>
-    <row r="354" spans="1:42">
+    <row r="354" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>42074</v>
       </c>
@@ -29889,7 +29932,7 @@
       </c>
       <c r="AP354" s="1"/>
     </row>
-    <row r="355" spans="1:42">
+    <row r="355" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>42075</v>
       </c>
@@ -29974,7 +30017,7 @@
       </c>
       <c r="AP355" s="1"/>
     </row>
-    <row r="356" spans="1:42">
+    <row r="356" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>42076</v>
       </c>
@@ -30059,7 +30102,7 @@
       </c>
       <c r="AP356" s="1"/>
     </row>
-    <row r="357" spans="1:42">
+    <row r="357" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>42077</v>
       </c>
@@ -30144,7 +30187,7 @@
       </c>
       <c r="AP357" s="1"/>
     </row>
-    <row r="358" spans="1:42">
+    <row r="358" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>42080</v>
       </c>
@@ -30229,7 +30272,7 @@
       </c>
       <c r="AP358" s="1"/>
     </row>
-    <row r="359" spans="1:42">
+    <row r="359" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>42081</v>
       </c>
@@ -30314,7 +30357,7 @@
       </c>
       <c r="AP359" s="1"/>
     </row>
-    <row r="360" spans="1:42">
+    <row r="360" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>42082</v>
       </c>
@@ -30396,7 +30439,7 @@
       </c>
       <c r="AP360" s="1"/>
     </row>
-    <row r="361" spans="1:42">
+    <row r="361" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>42083</v>
       </c>
@@ -30478,7 +30521,7 @@
       </c>
       <c r="AP361" s="1"/>
     </row>
-    <row r="362" spans="1:42">
+    <row r="362" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>42084</v>
       </c>
@@ -30563,7 +30606,7 @@
       </c>
       <c r="AP362" s="1"/>
     </row>
-    <row r="363" spans="1:42">
+    <row r="363" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>42087</v>
       </c>
@@ -30648,7 +30691,7 @@
       </c>
       <c r="AP363" s="1"/>
     </row>
-    <row r="364" spans="1:42">
+    <row r="364" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>42088</v>
       </c>
@@ -30730,7 +30773,7 @@
       </c>
       <c r="AP364" s="1"/>
     </row>
-    <row r="365" spans="1:42">
+    <row r="365" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>42089</v>
       </c>
@@ -30815,7 +30858,7 @@
       </c>
       <c r="AP365" s="1"/>
     </row>
-    <row r="366" spans="1:42">
+    <row r="366" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>42090</v>
       </c>
@@ -30900,7 +30943,7 @@
       </c>
       <c r="AP366" s="1"/>
     </row>
-    <row r="367" spans="1:42">
+    <row r="367" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>42091</v>
       </c>
@@ -30985,7 +31028,7 @@
       </c>
       <c r="AP367" s="1"/>
     </row>
-    <row r="368" spans="1:42">
+    <row r="368" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>42094</v>
       </c>
@@ -31070,7 +31113,7 @@
       </c>
       <c r="AP368" s="1"/>
     </row>
-    <row r="369" spans="1:42">
+    <row r="369" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>42095</v>
       </c>
@@ -31155,7 +31198,7 @@
       </c>
       <c r="AP369" s="1"/>
     </row>
-    <row r="370" spans="1:42">
+    <row r="370" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>42096</v>
       </c>
@@ -31240,7 +31283,7 @@
       </c>
       <c r="AP370" s="1"/>
     </row>
-    <row r="371" spans="1:42">
+    <row r="371" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>42097</v>
       </c>
@@ -31325,7 +31368,7 @@
       </c>
       <c r="AP371" s="1"/>
     </row>
-    <row r="372" spans="1:42">
+    <row r="372" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>42098</v>
       </c>
@@ -31410,7 +31453,7 @@
       </c>
       <c r="AP372" s="1"/>
     </row>
-    <row r="373" spans="1:42">
+    <row r="373" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>42101</v>
       </c>
@@ -31495,7 +31538,7 @@
       </c>
       <c r="AP373" s="1"/>
     </row>
-    <row r="374" spans="1:42">
+    <row r="374" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>42102</v>
       </c>
@@ -31580,7 +31623,7 @@
       </c>
       <c r="AP374" s="1"/>
     </row>
-    <row r="375" spans="1:42">
+    <row r="375" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>42103</v>
       </c>
@@ -31665,7 +31708,7 @@
       </c>
       <c r="AP375" s="1"/>
     </row>
-    <row r="376" spans="1:42">
+    <row r="376" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>42104</v>
       </c>
@@ -31750,7 +31793,7 @@
       </c>
       <c r="AP376" s="1"/>
     </row>
-    <row r="377" spans="1:42">
+    <row r="377" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>42105</v>
       </c>
@@ -31835,7 +31878,7 @@
       </c>
       <c r="AP377" s="1"/>
     </row>
-    <row r="378" spans="1:42">
+    <row r="378" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>42108</v>
       </c>
@@ -31920,7 +31963,7 @@
       </c>
       <c r="AP378" s="1"/>
     </row>
-    <row r="379" spans="1:42">
+    <row r="379" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>42109</v>
       </c>
@@ -32005,7 +32048,7 @@
       </c>
       <c r="AP379" s="1"/>
     </row>
-    <row r="380" spans="1:42">
+    <row r="380" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>42110</v>
       </c>
@@ -32090,7 +32133,7 @@
       </c>
       <c r="AP380" s="1"/>
     </row>
-    <row r="381" spans="1:42">
+    <row r="381" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>42111</v>
       </c>
@@ -32172,7 +32215,7 @@
       </c>
       <c r="AP381" s="1"/>
     </row>
-    <row r="382" spans="1:42">
+    <row r="382" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>42115</v>
       </c>
@@ -32257,7 +32300,7 @@
       </c>
       <c r="AP382" s="1"/>
     </row>
-    <row r="383" spans="1:42">
+    <row r="383" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>42116</v>
       </c>
@@ -32342,7 +32385,7 @@
       </c>
       <c r="AP383" s="1"/>
     </row>
-    <row r="384" spans="1:42">
+    <row r="384" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>42117</v>
       </c>
@@ -32427,7 +32470,7 @@
       </c>
       <c r="AP384" s="1"/>
     </row>
-    <row r="385" spans="1:42">
+    <row r="385" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>42118</v>
       </c>
@@ -32509,7 +32552,7 @@
       </c>
       <c r="AP385" s="1"/>
     </row>
-    <row r="386" spans="1:42">
+    <row r="386" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>42119</v>
       </c>
@@ -32594,7 +32637,7 @@
       </c>
       <c r="AP386" s="1"/>
     </row>
-    <row r="387" spans="1:42">
+    <row r="387" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>42122</v>
       </c>
@@ -32679,7 +32722,7 @@
       </c>
       <c r="AP387" s="1"/>
     </row>
-    <row r="388" spans="1:42">
+    <row r="388" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>42123</v>
       </c>
@@ -32764,7 +32807,7 @@
       </c>
       <c r="AP388" s="1"/>
     </row>
-    <row r="389" spans="1:42">
+    <row r="389" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>42124</v>
       </c>
@@ -32849,7 +32892,7 @@
       </c>
       <c r="AP389" s="1"/>
     </row>
-    <row r="390" spans="1:42">
+    <row r="390" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>42125</v>
       </c>
@@ -32934,7 +32977,7 @@
       </c>
       <c r="AP390" s="1"/>
     </row>
-    <row r="391" spans="1:42">
+    <row r="391" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>42126</v>
       </c>
@@ -33019,7 +33062,7 @@
       </c>
       <c r="AP391" s="1"/>
     </row>
-    <row r="392" spans="1:42">
+    <row r="392" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>42129</v>
       </c>
@@ -33104,7 +33147,7 @@
       </c>
       <c r="AP392" s="1"/>
     </row>
-    <row r="393" spans="1:42">
+    <row r="393" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>42130</v>
       </c>
@@ -33186,7 +33229,7 @@
       </c>
       <c r="AP393" s="1"/>
     </row>
-    <row r="394" spans="1:42">
+    <row r="394" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>42131</v>
       </c>
@@ -33271,7 +33314,7 @@
       </c>
       <c r="AP394" s="1"/>
     </row>
-    <row r="395" spans="1:42">
+    <row r="395" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>42132</v>
       </c>
@@ -33356,7 +33399,7 @@
       </c>
       <c r="AP395" s="1"/>
     </row>
-    <row r="396" spans="1:42">
+    <row r="396" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>42133</v>
       </c>
@@ -33441,7 +33484,7 @@
       </c>
       <c r="AP396" s="1"/>
     </row>
-    <row r="397" spans="1:42">
+    <row r="397" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>42136</v>
       </c>
@@ -33526,7 +33569,7 @@
       </c>
       <c r="AP397" s="1"/>
     </row>
-    <row r="398" spans="1:42">
+    <row r="398" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>42137</v>
       </c>
@@ -33611,7 +33654,7 @@
       </c>
       <c r="AP398" s="1"/>
     </row>
-    <row r="399" spans="1:42">
+    <row r="399" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>42138</v>
       </c>
@@ -33696,7 +33739,7 @@
       </c>
       <c r="AP399" s="1"/>
     </row>
-    <row r="400" spans="1:42">
+    <row r="400" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>42139</v>
       </c>
@@ -33781,7 +33824,7 @@
       </c>
       <c r="AP400" s="1"/>
     </row>
-    <row r="401" spans="1:42">
+    <row r="401" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>42140</v>
       </c>
@@ -33863,7 +33906,7 @@
       </c>
       <c r="AP401" s="1"/>
     </row>
-    <row r="402" spans="1:42">
+    <row r="402" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>42143</v>
       </c>
@@ -33945,7 +33988,7 @@
       </c>
       <c r="AP402" s="1"/>
     </row>
-    <row r="403" spans="1:42">
+    <row r="403" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>42144</v>
       </c>
@@ -34027,7 +34070,7 @@
       </c>
       <c r="AP403" s="1"/>
     </row>
-    <row r="404" spans="1:42">
+    <row r="404" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>42145</v>
       </c>
@@ -34109,7 +34152,7 @@
       </c>
       <c r="AP404" s="1"/>
     </row>
-    <row r="405" spans="1:42">
+    <row r="405" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>42146</v>
       </c>
@@ -34191,7 +34234,7 @@
       </c>
       <c r="AP405" s="1"/>
     </row>
-    <row r="406" spans="1:42">
+    <row r="406" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>42147</v>
       </c>
@@ -34273,7 +34316,7 @@
       </c>
       <c r="AP406" s="1"/>
     </row>
-    <row r="407" spans="1:42">
+    <row r="407" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>42151</v>
       </c>
@@ -34355,7 +34398,7 @@
       </c>
       <c r="AP407" s="1"/>
     </row>
-    <row r="408" spans="1:42">
+    <row r="408" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>42152</v>
       </c>
@@ -34440,7 +34483,7 @@
       </c>
       <c r="AP408" s="1"/>
     </row>
-    <row r="409" spans="1:42">
+    <row r="409" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>42153</v>
       </c>
@@ -34525,7 +34568,7 @@
       </c>
       <c r="AP409" s="1"/>
     </row>
-    <row r="410" spans="1:42">
+    <row r="410" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>42154</v>
       </c>
@@ -34610,7 +34653,7 @@
       </c>
       <c r="AP410" s="1"/>
     </row>
-    <row r="411" spans="1:42">
+    <row r="411" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>42157</v>
       </c>
@@ -34695,7 +34738,7 @@
       </c>
       <c r="AP411" s="1"/>
     </row>
-    <row r="412" spans="1:42">
+    <row r="412" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>42158</v>
       </c>
@@ -34780,7 +34823,7 @@
       </c>
       <c r="AP412" s="1"/>
     </row>
-    <row r="413" spans="1:42">
+    <row r="413" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>42159</v>
       </c>
@@ -34865,7 +34908,7 @@
       </c>
       <c r="AP413" s="1"/>
     </row>
-    <row r="414" spans="1:42">
+    <row r="414" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>42160</v>
       </c>
@@ -34950,7 +34993,7 @@
       </c>
       <c r="AP414" s="1"/>
     </row>
-    <row r="415" spans="1:42">
+    <row r="415" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>42161</v>
       </c>
@@ -35035,7 +35078,7 @@
       </c>
       <c r="AP415" s="1"/>
     </row>
-    <row r="416" spans="1:42">
+    <row r="416" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>42164</v>
       </c>
@@ -35120,7 +35163,7 @@
       </c>
       <c r="AP416" s="1"/>
     </row>
-    <row r="417" spans="1:42">
+    <row r="417" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>42165</v>
       </c>
@@ -35205,7 +35248,7 @@
       </c>
       <c r="AP417" s="1"/>
     </row>
-    <row r="418" spans="1:42">
+    <row r="418" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>42166</v>
       </c>
@@ -35290,7 +35333,7 @@
       </c>
       <c r="AP418" s="1"/>
     </row>
-    <row r="419" spans="1:42">
+    <row r="419" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>42167</v>
       </c>
@@ -35375,7 +35418,7 @@
       </c>
       <c r="AP419" s="1"/>
     </row>
-    <row r="420" spans="1:42">
+    <row r="420" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>42168</v>
       </c>
@@ -35460,7 +35503,7 @@
       </c>
       <c r="AP420" s="1"/>
     </row>
-    <row r="421" spans="1:42">
+    <row r="421" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>42171</v>
       </c>
@@ -35545,7 +35588,7 @@
       </c>
       <c r="AP421" s="1"/>
     </row>
-    <row r="422" spans="1:42">
+    <row r="422" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>42172</v>
       </c>
@@ -35630,7 +35673,7 @@
       </c>
       <c r="AP422" s="1"/>
     </row>
-    <row r="423" spans="1:42">
+    <row r="423" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>42173</v>
       </c>
@@ -35715,7 +35758,7 @@
       </c>
       <c r="AP423" s="1"/>
     </row>
-    <row r="424" spans="1:42">
+    <row r="424" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>42174</v>
       </c>
@@ -35800,7 +35843,7 @@
       </c>
       <c r="AP424" s="1"/>
     </row>
-    <row r="425" spans="1:42">
+    <row r="425" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>42175</v>
       </c>
@@ -35885,7 +35928,7 @@
       </c>
       <c r="AP425" s="1"/>
     </row>
-    <row r="426" spans="1:42">
+    <row r="426" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>42178</v>
       </c>
@@ -35970,7 +36013,7 @@
       </c>
       <c r="AP426" s="1"/>
     </row>
-    <row r="427" spans="1:42">
+    <row r="427" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>42179</v>
       </c>
@@ -36055,7 +36098,7 @@
       </c>
       <c r="AP427" s="1"/>
     </row>
-    <row r="428" spans="1:42">
+    <row r="428" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>42180</v>
       </c>
@@ -36140,7 +36183,7 @@
       </c>
       <c r="AP428" s="1"/>
     </row>
-    <row r="429" spans="1:42">
+    <row r="429" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>42181</v>
       </c>
@@ -36225,7 +36268,7 @@
       </c>
       <c r="AP429" s="1"/>
     </row>
-    <row r="430" spans="1:42">
+    <row r="430" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>42182</v>
       </c>
@@ -36310,7 +36353,7 @@
       </c>
       <c r="AP430" s="1"/>
     </row>
-    <row r="431" spans="1:42">
+    <row r="431" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>42185</v>
       </c>
@@ -36395,7 +36438,7 @@
       </c>
       <c r="AP431" s="1"/>
     </row>
-    <row r="432" spans="1:42">
+    <row r="432" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>42186</v>
       </c>
@@ -36480,7 +36523,7 @@
       </c>
       <c r="AP432" s="1"/>
     </row>
-    <row r="433" spans="1:42">
+    <row r="433" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>42187</v>
       </c>
@@ -36565,7 +36608,7 @@
       </c>
       <c r="AP433" s="1"/>
     </row>
-    <row r="434" spans="1:42">
+    <row r="434" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>42189</v>
       </c>
@@ -36650,7 +36693,7 @@
       </c>
       <c r="AP434" s="1"/>
     </row>
-    <row r="435" spans="1:42">
+    <row r="435" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>42192</v>
       </c>
@@ -36735,7 +36778,7 @@
       </c>
       <c r="AP435" s="1"/>
     </row>
-    <row r="436" spans="1:42">
+    <row r="436" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>42193</v>
       </c>
@@ -36820,7 +36863,7 @@
       </c>
       <c r="AP436" s="1"/>
     </row>
-    <row r="437" spans="1:42">
+    <row r="437" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>42194</v>
       </c>
@@ -36905,7 +36948,7 @@
       </c>
       <c r="AP437" s="1"/>
     </row>
-    <row r="438" spans="1:42">
+    <row r="438" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>42195</v>
       </c>
@@ -36990,7 +37033,7 @@
       </c>
       <c r="AP438" s="1"/>
     </row>
-    <row r="439" spans="1:42">
+    <row r="439" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>42196</v>
       </c>
@@ -37075,7 +37118,7 @@
       </c>
       <c r="AP439" s="1"/>
     </row>
-    <row r="440" spans="1:42">
+    <row r="440" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>42199</v>
       </c>
@@ -37160,7 +37203,7 @@
       </c>
       <c r="AP440" s="1"/>
     </row>
-    <row r="441" spans="1:42">
+    <row r="441" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>42200</v>
       </c>
@@ -37245,7 +37288,7 @@
       </c>
       <c r="AP441" s="1"/>
     </row>
-    <row r="442" spans="1:42">
+    <row r="442" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>42201</v>
       </c>
@@ -37330,7 +37373,7 @@
       </c>
       <c r="AP442" s="1"/>
     </row>
-    <row r="443" spans="1:42">
+    <row r="443" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>42202</v>
       </c>
@@ -37415,7 +37458,7 @@
       </c>
       <c r="AP443" s="1"/>
     </row>
-    <row r="444" spans="1:42">
+    <row r="444" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>42203</v>
       </c>
@@ -37500,7 +37543,7 @@
       </c>
       <c r="AP444" s="1"/>
     </row>
-    <row r="445" spans="1:42">
+    <row r="445" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>42206</v>
       </c>
@@ -37585,7 +37628,7 @@
       </c>
       <c r="AP445" s="1"/>
     </row>
-    <row r="446" spans="1:42">
+    <row r="446" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>42207</v>
       </c>
@@ -37670,7 +37713,7 @@
       </c>
       <c r="AP446" s="1"/>
     </row>
-    <row r="447" spans="1:42">
+    <row r="447" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>42208</v>
       </c>
@@ -37755,7 +37798,7 @@
       </c>
       <c r="AP447" s="1"/>
     </row>
-    <row r="448" spans="1:42">
+    <row r="448" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>42209</v>
       </c>
@@ -37840,7 +37883,7 @@
       </c>
       <c r="AP448" s="1"/>
     </row>
-    <row r="449" spans="1:42">
+    <row r="449" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>42210</v>
       </c>
@@ -37925,7 +37968,7 @@
       </c>
       <c r="AP449" s="1"/>
     </row>
-    <row r="450" spans="1:42">
+    <row r="450" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>42213</v>
       </c>
@@ -38010,7 +38053,7 @@
       </c>
       <c r="AP450" s="1"/>
     </row>
-    <row r="451" spans="1:42">
+    <row r="451" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>42214</v>
       </c>
@@ -38095,7 +38138,7 @@
       </c>
       <c r="AP451" s="1"/>
     </row>
-    <row r="452" spans="1:42">
+    <row r="452" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>42215</v>
       </c>
@@ -38180,7 +38223,7 @@
       </c>
       <c r="AP452" s="1"/>
     </row>
-    <row r="453" spans="1:42">
+    <row r="453" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>42216</v>
       </c>
@@ -38265,7 +38308,7 @@
       </c>
       <c r="AP453" s="1"/>
     </row>
-    <row r="454" spans="1:42">
+    <row r="454" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>42217</v>
       </c>
@@ -38350,7 +38393,7 @@
       </c>
       <c r="AP454" s="1"/>
     </row>
-    <row r="455" spans="1:42">
+    <row r="455" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>42220</v>
       </c>
@@ -38435,7 +38478,7 @@
       </c>
       <c r="AP455" s="1"/>
     </row>
-    <row r="456" spans="1:42">
+    <row r="456" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>42221</v>
       </c>
@@ -38520,7 +38563,7 @@
       </c>
       <c r="AP456" s="1"/>
     </row>
-    <row r="457" spans="1:42">
+    <row r="457" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>42222</v>
       </c>
@@ -38605,7 +38648,7 @@
       </c>
       <c r="AP457" s="1"/>
     </row>
-    <row r="458" spans="1:42">
+    <row r="458" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>42223</v>
       </c>
@@ -38690,7 +38733,7 @@
       </c>
       <c r="AP458" s="1"/>
     </row>
-    <row r="459" spans="1:42">
+    <row r="459" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>42224</v>
       </c>
@@ -38775,7 +38818,7 @@
       </c>
       <c r="AP459" s="1"/>
     </row>
-    <row r="460" spans="1:42">
+    <row r="460" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>42227</v>
       </c>
@@ -38860,7 +38903,7 @@
       </c>
       <c r="AP460" s="1"/>
     </row>
-    <row r="461" spans="1:42">
+    <row r="461" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>42228</v>
       </c>
@@ -38945,7 +38988,7 @@
       </c>
       <c r="AP461" s="1"/>
     </row>
-    <row r="462" spans="1:42">
+    <row r="462" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>42229</v>
       </c>
@@ -39030,7 +39073,7 @@
       </c>
       <c r="AP462" s="1"/>
     </row>
-    <row r="463" spans="1:42">
+    <row r="463" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>42230</v>
       </c>
@@ -39115,7 +39158,7 @@
       </c>
       <c r="AP463" s="1"/>
     </row>
-    <row r="464" spans="1:42">
+    <row r="464" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>42231</v>
       </c>
@@ -39200,7 +39243,7 @@
       </c>
       <c r="AP464" s="1"/>
     </row>
-    <row r="465" spans="1:42">
+    <row r="465" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>42234</v>
       </c>
@@ -39285,7 +39328,7 @@
       </c>
       <c r="AP465" s="1"/>
     </row>
-    <row r="466" spans="1:42">
+    <row r="466" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>42235</v>
       </c>
@@ -39370,7 +39413,7 @@
       </c>
       <c r="AP466" s="1"/>
     </row>
-    <row r="467" spans="1:42">
+    <row r="467" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>42236</v>
       </c>
@@ -39455,7 +39498,7 @@
       </c>
       <c r="AP467" s="1"/>
     </row>
-    <row r="468" spans="1:42">
+    <row r="468" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>42237</v>
       </c>
@@ -39540,7 +39583,7 @@
       </c>
       <c r="AP468" s="1"/>
     </row>
-    <row r="469" spans="1:42">
+    <row r="469" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>42238</v>
       </c>
@@ -39625,7 +39668,7 @@
       </c>
       <c r="AP469" s="1"/>
     </row>
-    <row r="470" spans="1:42">
+    <row r="470" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>42241</v>
       </c>
@@ -39710,7 +39753,7 @@
       </c>
       <c r="AP470" s="1"/>
     </row>
-    <row r="471" spans="1:42">
+    <row r="471" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>42242</v>
       </c>
@@ -39795,7 +39838,7 @@
       </c>
       <c r="AP471" s="1"/>
     </row>
-    <row r="472" spans="1:42">
+    <row r="472" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>42243</v>
       </c>
@@ -39880,7 +39923,7 @@
       </c>
       <c r="AP472" s="1"/>
     </row>
-    <row r="473" spans="1:42">
+    <row r="473" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>42244</v>
       </c>
@@ -39965,7 +40008,7 @@
       </c>
       <c r="AP473" s="1"/>
     </row>
-    <row r="474" spans="1:42">
+    <row r="474" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>42245</v>
       </c>
@@ -40050,7 +40093,7 @@
       </c>
       <c r="AP474" s="1"/>
     </row>
-    <row r="475" spans="1:42">
+    <row r="475" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>42249</v>
       </c>
@@ -40135,7 +40178,7 @@
       </c>
       <c r="AP475" s="1"/>
     </row>
-    <row r="476" spans="1:42">
+    <row r="476" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>42250</v>
       </c>
@@ -40220,7 +40263,7 @@
       </c>
       <c r="AP476" s="1"/>
     </row>
-    <row r="477" spans="1:42">
+    <row r="477" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>42251</v>
       </c>
@@ -40305,7 +40348,7 @@
       </c>
       <c r="AP477" s="1"/>
     </row>
-    <row r="478" spans="1:42">
+    <row r="478" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>42252</v>
       </c>
@@ -40390,7 +40433,7 @@
       </c>
       <c r="AP478" s="1"/>
     </row>
-    <row r="479" spans="1:42">
+    <row r="479" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>42255</v>
       </c>
@@ -40475,7 +40518,7 @@
       </c>
       <c r="AP479" s="1"/>
     </row>
-    <row r="480" spans="1:42">
+    <row r="480" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>42256</v>
       </c>
@@ -40560,7 +40603,7 @@
       </c>
       <c r="AP480" s="1"/>
     </row>
-    <row r="481" spans="1:42">
+    <row r="481" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>42257</v>
       </c>
@@ -40645,7 +40688,7 @@
       </c>
       <c r="AP481" s="1"/>
     </row>
-    <row r="482" spans="1:42">
+    <row r="482" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>42258</v>
       </c>
@@ -40730,7 +40773,7 @@
       </c>
       <c r="AP482" s="1"/>
     </row>
-    <row r="483" spans="1:42">
+    <row r="483" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>42259</v>
       </c>
@@ -40815,7 +40858,7 @@
       </c>
       <c r="AP483" s="1"/>
     </row>
-    <row r="484" spans="1:42">
+    <row r="484" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>42262</v>
       </c>
@@ -40900,7 +40943,7 @@
       </c>
       <c r="AP484" s="1"/>
     </row>
-    <row r="485" spans="1:42">
+    <row r="485" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>42263</v>
       </c>
@@ -40985,7 +41028,7 @@
       </c>
       <c r="AP485" s="1"/>
     </row>
-    <row r="486" spans="1:42">
+    <row r="486" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>42264</v>
       </c>
@@ -41070,7 +41113,7 @@
       </c>
       <c r="AP486" s="1"/>
     </row>
-    <row r="487" spans="1:42">
+    <row r="487" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>42265</v>
       </c>
@@ -41155,7 +41198,7 @@
       </c>
       <c r="AP487" s="1"/>
     </row>
-    <row r="488" spans="1:42">
+    <row r="488" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>42266</v>
       </c>
@@ -41240,7 +41283,7 @@
       </c>
       <c r="AP488" s="1"/>
     </row>
-    <row r="489" spans="1:42">
+    <row r="489" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>42269</v>
       </c>
@@ -41325,7 +41368,7 @@
       </c>
       <c r="AP489" s="1"/>
     </row>
-    <row r="490" spans="1:42">
+    <row r="490" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>42270</v>
       </c>
@@ -41410,7 +41453,7 @@
       </c>
       <c r="AP490" s="1"/>
     </row>
-    <row r="491" spans="1:42">
+    <row r="491" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>42271</v>
       </c>
@@ -41495,7 +41538,7 @@
       </c>
       <c r="AP491" s="1"/>
     </row>
-    <row r="492" spans="1:42">
+    <row r="492" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>42272</v>
       </c>
@@ -41580,7 +41623,7 @@
       </c>
       <c r="AP492" s="1"/>
     </row>
-    <row r="493" spans="1:42">
+    <row r="493" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>42273</v>
       </c>
@@ -41665,7 +41708,7 @@
       </c>
       <c r="AP493" s="1"/>
     </row>
-    <row r="494" spans="1:42">
+    <row r="494" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>42276</v>
       </c>
@@ -41750,7 +41793,7 @@
       </c>
       <c r="AP494" s="1"/>
     </row>
-    <row r="495" spans="1:42">
+    <row r="495" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>42277</v>
       </c>
@@ -41835,7 +41878,7 @@
       </c>
       <c r="AP495" s="1"/>
     </row>
-    <row r="496" spans="1:42">
+    <row r="496" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>42278</v>
       </c>
@@ -41920,7 +41963,7 @@
       </c>
       <c r="AP496" s="1"/>
     </row>
-    <row r="497" spans="1:42">
+    <row r="497" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>42279</v>
       </c>
@@ -42005,7 +42048,7 @@
       </c>
       <c r="AP497" s="1"/>
     </row>
-    <row r="498" spans="1:42">
+    <row r="498" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>42280</v>
       </c>
@@ -42090,7 +42133,7 @@
       </c>
       <c r="AP498" s="1"/>
     </row>
-    <row r="499" spans="1:42">
+    <row r="499" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>42283</v>
       </c>
@@ -42175,7 +42218,7 @@
       </c>
       <c r="AP499" s="1"/>
     </row>
-    <row r="500" spans="1:42">
+    <row r="500" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>42284</v>
       </c>
@@ -42260,7 +42303,7 @@
       </c>
       <c r="AP500" s="1"/>
     </row>
-    <row r="501" spans="1:42">
+    <row r="501" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>42285</v>
       </c>
@@ -42345,7 +42388,7 @@
       </c>
       <c r="AP501" s="1"/>
     </row>
-    <row r="502" spans="1:42">
+    <row r="502" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>42286</v>
       </c>
@@ -42430,7 +42473,7 @@
       </c>
       <c r="AP502" s="1"/>
     </row>
-    <row r="503" spans="1:42">
+    <row r="503" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>42287</v>
       </c>
@@ -42515,7 +42558,7 @@
       </c>
       <c r="AP503" s="1"/>
     </row>
-    <row r="504" spans="1:42">
+    <row r="504" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>42290</v>
       </c>
@@ -42600,7 +42643,7 @@
       </c>
       <c r="AP504" s="1"/>
     </row>
-    <row r="505" spans="1:42">
+    <row r="505" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>42291</v>
       </c>
@@ -42685,7 +42728,7 @@
       </c>
       <c r="AP505" s="1"/>
     </row>
-    <row r="506" spans="1:42">
+    <row r="506" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>42292</v>
       </c>
@@ -42770,7 +42813,7 @@
       </c>
       <c r="AP506" s="1"/>
     </row>
-    <row r="507" spans="1:42">
+    <row r="507" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>42293</v>
       </c>
@@ -42855,7 +42898,7 @@
       </c>
       <c r="AP507" s="1"/>
     </row>
-    <row r="508" spans="1:42">
+    <row r="508" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>42294</v>
       </c>
@@ -42913,7 +42956,7 @@
       <c r="AK508" s="1"/>
       <c r="AP508" s="1"/>
     </row>
-    <row r="509" spans="1:42">
+    <row r="509" spans="1:42" x14ac:dyDescent="0.2">
       <c r="U509" s="1"/>
       <c r="V509" s="1">
         <v>42069</v>
@@ -42931,7 +42974,7 @@
       <c r="AK509" s="1"/>
       <c r="AP509" s="1"/>
     </row>
-    <row r="510" spans="1:42">
+    <row r="510" spans="1:42" x14ac:dyDescent="0.2">
       <c r="U510" s="1"/>
       <c r="V510" s="1">
         <v>42070</v>
@@ -42949,7 +42992,7 @@
       <c r="AK510" s="1"/>
       <c r="AP510" s="1"/>
     </row>
-    <row r="511" spans="1:42">
+    <row r="511" spans="1:42" x14ac:dyDescent="0.2">
       <c r="U511" s="1"/>
       <c r="V511" s="1">
         <v>42071</v>
@@ -42967,7 +43010,7 @@
       <c r="AK511" s="1"/>
       <c r="AP511" s="1"/>
     </row>
-    <row r="512" spans="1:42">
+    <row r="512" spans="1:42" x14ac:dyDescent="0.2">
       <c r="U512" s="1"/>
       <c r="V512" s="1">
         <v>42072</v>
@@ -42985,7 +43028,7 @@
       <c r="AK512" s="1"/>
       <c r="AP512" s="1"/>
     </row>
-    <row r="513" spans="21:43">
+    <row r="513" spans="21:43" x14ac:dyDescent="0.2">
       <c r="U513" s="1"/>
       <c r="V513" s="1">
         <v>42073</v>
@@ -43004,7 +43047,7 @@
         <v>348.5</v>
       </c>
     </row>
-    <row r="514" spans="21:43">
+    <row r="514" spans="21:43" x14ac:dyDescent="0.2">
       <c r="U514" s="1"/>
       <c r="V514" s="1">
         <v>42074</v>
@@ -43020,7 +43063,7 @@
       <c r="AF514" s="1"/>
       <c r="AK514" s="1"/>
     </row>
-    <row r="515" spans="21:43">
+    <row r="515" spans="21:43" x14ac:dyDescent="0.2">
       <c r="U515" s="1"/>
       <c r="V515" s="1">
         <v>42075</v>
@@ -43036,7 +43079,7 @@
       <c r="AF515" s="1"/>
       <c r="AK515" s="1"/>
     </row>
-    <row r="516" spans="21:43">
+    <row r="516" spans="21:43" x14ac:dyDescent="0.2">
       <c r="U516" s="1"/>
       <c r="V516" s="1">
         <v>42076</v>
@@ -43052,7 +43095,7 @@
       <c r="AF516" s="1"/>
       <c r="AK516" s="1"/>
     </row>
-    <row r="517" spans="21:43">
+    <row r="517" spans="21:43" x14ac:dyDescent="0.2">
       <c r="V517" s="1">
         <v>42077</v>
       </c>
@@ -43067,7 +43110,7 @@
       <c r="AF517" s="1"/>
       <c r="AK517" s="1"/>
     </row>
-    <row r="518" spans="21:43">
+    <row r="518" spans="21:43" x14ac:dyDescent="0.2">
       <c r="V518" s="1">
         <v>42078</v>
       </c>
@@ -43082,7 +43125,7 @@
       <c r="AF518" s="1"/>
       <c r="AK518" s="1"/>
     </row>
-    <row r="519" spans="21:43">
+    <row r="519" spans="21:43" x14ac:dyDescent="0.2">
       <c r="V519" s="1">
         <v>42079</v>
       </c>
@@ -43097,7 +43140,7 @@
       <c r="AF519" s="1"/>
       <c r="AK519" s="1"/>
     </row>
-    <row r="520" spans="21:43">
+    <row r="520" spans="21:43" x14ac:dyDescent="0.2">
       <c r="V520" s="1">
         <v>42080</v>
       </c>
@@ -43112,7 +43155,7 @@
       <c r="AF520" s="1"/>
       <c r="AK520" s="1"/>
     </row>
-    <row r="521" spans="21:43">
+    <row r="521" spans="21:43" x14ac:dyDescent="0.2">
       <c r="V521" s="1">
         <v>42081</v>
       </c>
@@ -43127,7 +43170,7 @@
       <c r="AF521" s="1"/>
       <c r="AK521" s="1"/>
     </row>
-    <row r="522" spans="21:43">
+    <row r="522" spans="21:43" x14ac:dyDescent="0.2">
       <c r="V522" s="1">
         <v>42082</v>
       </c>
@@ -43142,7 +43185,7 @@
       <c r="AF522" s="1"/>
       <c r="AK522" s="1"/>
     </row>
-    <row r="523" spans="21:43">
+    <row r="523" spans="21:43" x14ac:dyDescent="0.2">
       <c r="V523" s="1">
         <v>42083</v>
       </c>
@@ -43157,7 +43200,7 @@
       <c r="AF523" s="1"/>
       <c r="AK523" s="1"/>
     </row>
-    <row r="524" spans="21:43">
+    <row r="524" spans="21:43" x14ac:dyDescent="0.2">
       <c r="V524" s="1">
         <v>42084</v>
       </c>
@@ -43172,7 +43215,7 @@
       <c r="AF524" s="1"/>
       <c r="AK524" s="1"/>
     </row>
-    <row r="525" spans="21:43">
+    <row r="525" spans="21:43" x14ac:dyDescent="0.2">
       <c r="V525" s="1">
         <v>42085</v>
       </c>
@@ -43187,7 +43230,7 @@
       <c r="AF525" s="1"/>
       <c r="AK525" s="1"/>
     </row>
-    <row r="526" spans="21:43">
+    <row r="526" spans="21:43" x14ac:dyDescent="0.2">
       <c r="V526" s="1">
         <v>42086</v>
       </c>
@@ -43202,7 +43245,7 @@
       <c r="AF526" s="1"/>
       <c r="AK526" s="1"/>
     </row>
-    <row r="527" spans="21:43">
+    <row r="527" spans="21:43" x14ac:dyDescent="0.2">
       <c r="V527" s="1">
         <v>42087</v>
       </c>
@@ -43217,7 +43260,7 @@
       <c r="AF527" s="1"/>
       <c r="AK527" s="1"/>
     </row>
-    <row r="528" spans="21:43">
+    <row r="528" spans="21:43" x14ac:dyDescent="0.2">
       <c r="V528" s="1">
         <v>42088</v>
       </c>
@@ -43232,7 +43275,7 @@
       <c r="AF528" s="1"/>
       <c r="AK528" s="1"/>
     </row>
-    <row r="529" spans="22:37">
+    <row r="529" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V529" s="1">
         <v>42089</v>
       </c>
@@ -43247,7 +43290,7 @@
       <c r="AF529" s="1"/>
       <c r="AK529" s="1"/>
     </row>
-    <row r="530" spans="22:37">
+    <row r="530" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V530" s="1">
         <v>42090</v>
       </c>
@@ -43262,7 +43305,7 @@
       <c r="AF530" s="1"/>
       <c r="AK530" s="1"/>
     </row>
-    <row r="531" spans="22:37">
+    <row r="531" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V531" s="1">
         <v>42091</v>
       </c>
@@ -43277,7 +43320,7 @@
       <c r="AF531" s="1"/>
       <c r="AK531" s="1"/>
     </row>
-    <row r="532" spans="22:37">
+    <row r="532" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V532" s="1">
         <v>42092</v>
       </c>
@@ -43292,7 +43335,7 @@
       <c r="AF532" s="1"/>
       <c r="AK532" s="1"/>
     </row>
-    <row r="533" spans="22:37">
+    <row r="533" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V533" s="1">
         <v>42093</v>
       </c>
@@ -43307,7 +43350,7 @@
       <c r="AF533" s="1"/>
       <c r="AK533" s="1"/>
     </row>
-    <row r="534" spans="22:37">
+    <row r="534" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V534" s="1">
         <v>42094</v>
       </c>
@@ -43322,7 +43365,7 @@
       <c r="AF534" s="1"/>
       <c r="AK534" s="1"/>
     </row>
-    <row r="535" spans="22:37">
+    <row r="535" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V535" s="1">
         <v>42095</v>
       </c>
@@ -43337,7 +43380,7 @@
       <c r="AF535" s="1"/>
       <c r="AK535" s="1"/>
     </row>
-    <row r="536" spans="22:37">
+    <row r="536" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V536" s="1">
         <v>42096</v>
       </c>
@@ -43352,7 +43395,7 @@
       <c r="AF536" s="1"/>
       <c r="AK536" s="1"/>
     </row>
-    <row r="537" spans="22:37">
+    <row r="537" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V537" s="1">
         <v>42097</v>
       </c>
@@ -43367,7 +43410,7 @@
       <c r="AF537" s="1"/>
       <c r="AK537" s="1"/>
     </row>
-    <row r="538" spans="22:37">
+    <row r="538" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V538" s="1">
         <v>42098</v>
       </c>
@@ -43382,7 +43425,7 @@
       <c r="AF538" s="1"/>
       <c r="AK538" s="1"/>
     </row>
-    <row r="539" spans="22:37">
+    <row r="539" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V539" s="1">
         <v>42099</v>
       </c>
@@ -43397,7 +43440,7 @@
       <c r="AF539" s="1"/>
       <c r="AK539" s="1"/>
     </row>
-    <row r="540" spans="22:37">
+    <row r="540" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V540" s="1">
         <v>42100</v>
       </c>
@@ -43412,7 +43455,7 @@
       <c r="AF540" s="1"/>
       <c r="AK540" s="1"/>
     </row>
-    <row r="541" spans="22:37">
+    <row r="541" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V541" s="1">
         <v>42101</v>
       </c>
@@ -43427,7 +43470,7 @@
       <c r="AF541" s="1"/>
       <c r="AK541" s="1"/>
     </row>
-    <row r="542" spans="22:37">
+    <row r="542" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V542" s="1">
         <v>42102</v>
       </c>
@@ -43442,7 +43485,7 @@
       <c r="AF542" s="1"/>
       <c r="AK542" s="1"/>
     </row>
-    <row r="543" spans="22:37">
+    <row r="543" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V543" s="1">
         <v>42103</v>
       </c>
@@ -43457,7 +43500,7 @@
       <c r="AF543" s="1"/>
       <c r="AK543" s="1"/>
     </row>
-    <row r="544" spans="22:37">
+    <row r="544" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V544" s="1">
         <v>42104</v>
       </c>
@@ -43472,7 +43515,7 @@
       <c r="AF544" s="1"/>
       <c r="AK544" s="1"/>
     </row>
-    <row r="545" spans="22:37">
+    <row r="545" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V545" s="1">
         <v>42105</v>
       </c>
@@ -43487,7 +43530,7 @@
       <c r="AF545" s="1"/>
       <c r="AK545" s="1"/>
     </row>
-    <row r="546" spans="22:37">
+    <row r="546" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V546" s="1">
         <v>42106</v>
       </c>
@@ -43502,7 +43545,7 @@
       <c r="AF546" s="1"/>
       <c r="AK546" s="1"/>
     </row>
-    <row r="547" spans="22:37">
+    <row r="547" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V547" s="1">
         <v>42107</v>
       </c>
@@ -43517,7 +43560,7 @@
       <c r="AF547" s="1"/>
       <c r="AK547" s="1"/>
     </row>
-    <row r="548" spans="22:37">
+    <row r="548" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V548" s="1">
         <v>42108</v>
       </c>
@@ -43532,7 +43575,7 @@
       <c r="AF548" s="1"/>
       <c r="AK548" s="1"/>
     </row>
-    <row r="549" spans="22:37">
+    <row r="549" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V549" s="1">
         <v>42109</v>
       </c>
@@ -43547,7 +43590,7 @@
       <c r="AF549" s="1"/>
       <c r="AK549" s="1"/>
     </row>
-    <row r="550" spans="22:37">
+    <row r="550" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V550" s="1">
         <v>42110</v>
       </c>
@@ -43562,7 +43605,7 @@
       <c r="AF550" s="1"/>
       <c r="AK550" s="1"/>
     </row>
-    <row r="551" spans="22:37">
+    <row r="551" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V551" s="1">
         <v>42111</v>
       </c>
@@ -43577,7 +43620,7 @@
       <c r="AF551" s="1"/>
       <c r="AK551" s="1"/>
     </row>
-    <row r="552" spans="22:37">
+    <row r="552" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V552" s="1">
         <v>42112</v>
       </c>
@@ -43592,7 +43635,7 @@
       <c r="AF552" s="1"/>
       <c r="AK552" s="1"/>
     </row>
-    <row r="553" spans="22:37">
+    <row r="553" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V553" s="1">
         <v>42113</v>
       </c>
@@ -43607,7 +43650,7 @@
       <c r="AF553" s="1"/>
       <c r="AK553" s="1"/>
     </row>
-    <row r="554" spans="22:37">
+    <row r="554" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V554" s="1">
         <v>42114</v>
       </c>
@@ -43622,7 +43665,7 @@
       <c r="AF554" s="1"/>
       <c r="AK554" s="1"/>
     </row>
-    <row r="555" spans="22:37">
+    <row r="555" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V555" s="1">
         <v>42115</v>
       </c>
@@ -43637,7 +43680,7 @@
       <c r="AF555" s="1"/>
       <c r="AK555" s="1"/>
     </row>
-    <row r="556" spans="22:37">
+    <row r="556" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V556" s="1">
         <v>42116</v>
       </c>
@@ -43652,7 +43695,7 @@
       <c r="AF556" s="1"/>
       <c r="AK556" s="1"/>
     </row>
-    <row r="557" spans="22:37">
+    <row r="557" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V557" s="1">
         <v>42117</v>
       </c>
@@ -43667,7 +43710,7 @@
       <c r="AF557" s="1"/>
       <c r="AK557" s="1"/>
     </row>
-    <row r="558" spans="22:37">
+    <row r="558" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V558" s="1">
         <v>42118</v>
       </c>
@@ -43682,7 +43725,7 @@
       <c r="AF558" s="1"/>
       <c r="AK558" s="1"/>
     </row>
-    <row r="559" spans="22:37">
+    <row r="559" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V559" s="1">
         <v>42119</v>
       </c>
@@ -43697,7 +43740,7 @@
       <c r="AF559" s="1"/>
       <c r="AK559" s="1"/>
     </row>
-    <row r="560" spans="22:37">
+    <row r="560" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V560" s="1">
         <v>42120</v>
       </c>
@@ -43712,7 +43755,7 @@
       <c r="AF560" s="1"/>
       <c r="AK560" s="1"/>
     </row>
-    <row r="561" spans="22:37">
+    <row r="561" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V561" s="1">
         <v>42121</v>
       </c>
@@ -43727,7 +43770,7 @@
       <c r="AF561" s="1"/>
       <c r="AK561" s="1"/>
     </row>
-    <row r="562" spans="22:37">
+    <row r="562" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V562" s="1">
         <v>42122</v>
       </c>
@@ -43742,7 +43785,7 @@
       <c r="AF562" s="1"/>
       <c r="AK562" s="1"/>
     </row>
-    <row r="563" spans="22:37">
+    <row r="563" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V563" s="1">
         <v>42123</v>
       </c>
@@ -43757,7 +43800,7 @@
       <c r="AF563" s="1"/>
       <c r="AK563" s="1"/>
     </row>
-    <row r="564" spans="22:37">
+    <row r="564" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V564" s="1">
         <v>42124</v>
       </c>
@@ -43772,7 +43815,7 @@
       <c r="AF564" s="1"/>
       <c r="AK564" s="1"/>
     </row>
-    <row r="565" spans="22:37">
+    <row r="565" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V565" s="1">
         <v>42125</v>
       </c>
@@ -43787,7 +43830,7 @@
       <c r="AF565" s="1"/>
       <c r="AK565" s="1"/>
     </row>
-    <row r="566" spans="22:37">
+    <row r="566" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V566" s="1">
         <v>42126</v>
       </c>
@@ -43802,7 +43845,7 @@
       <c r="AF566" s="1"/>
       <c r="AK566" s="1"/>
     </row>
-    <row r="567" spans="22:37">
+    <row r="567" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V567" s="1">
         <v>42127</v>
       </c>
@@ -43817,7 +43860,7 @@
       <c r="AF567" s="1"/>
       <c r="AK567" s="1"/>
     </row>
-    <row r="568" spans="22:37">
+    <row r="568" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V568" s="1">
         <v>42128</v>
       </c>
@@ -43832,7 +43875,7 @@
       <c r="AF568" s="1"/>
       <c r="AK568" s="1"/>
     </row>
-    <row r="569" spans="22:37">
+    <row r="569" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V569" s="1">
         <v>42129</v>
       </c>
@@ -43847,7 +43890,7 @@
       <c r="AF569" s="1"/>
       <c r="AK569" s="1"/>
     </row>
-    <row r="570" spans="22:37">
+    <row r="570" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V570" s="1">
         <v>42130</v>
       </c>
@@ -43862,7 +43905,7 @@
       <c r="AF570" s="1"/>
       <c r="AK570" s="1"/>
     </row>
-    <row r="571" spans="22:37">
+    <row r="571" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V571" s="1">
         <v>42131</v>
       </c>
@@ -43877,7 +43920,7 @@
       <c r="AF571" s="1"/>
       <c r="AK571" s="1"/>
     </row>
-    <row r="572" spans="22:37">
+    <row r="572" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V572" s="1">
         <v>42132</v>
       </c>
@@ -43892,7 +43935,7 @@
       <c r="AF572" s="1"/>
       <c r="AK572" s="1"/>
     </row>
-    <row r="573" spans="22:37">
+    <row r="573" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V573" s="1">
         <v>42133</v>
       </c>
@@ -43907,7 +43950,7 @@
       <c r="AF573" s="1"/>
       <c r="AK573" s="1"/>
     </row>
-    <row r="574" spans="22:37">
+    <row r="574" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V574" s="1">
         <v>42134</v>
       </c>
@@ -43922,7 +43965,7 @@
       <c r="AF574" s="1"/>
       <c r="AK574" s="1"/>
     </row>
-    <row r="575" spans="22:37">
+    <row r="575" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V575" s="1">
         <v>42135</v>
       </c>
@@ -43937,7 +43980,7 @@
       <c r="AF575" s="1"/>
       <c r="AK575" s="1"/>
     </row>
-    <row r="576" spans="22:37">
+    <row r="576" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V576" s="1">
         <v>42136</v>
       </c>
@@ -43952,7 +43995,7 @@
       <c r="AF576" s="1"/>
       <c r="AK576" s="1"/>
     </row>
-    <row r="577" spans="22:37">
+    <row r="577" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V577" s="1">
         <v>42137</v>
       </c>
@@ -43967,7 +44010,7 @@
       <c r="AF577" s="1"/>
       <c r="AK577" s="1"/>
     </row>
-    <row r="578" spans="22:37">
+    <row r="578" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V578" s="1">
         <v>42138</v>
       </c>
@@ -43982,7 +44025,7 @@
       <c r="AF578" s="1"/>
       <c r="AK578" s="1"/>
     </row>
-    <row r="579" spans="22:37">
+    <row r="579" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V579" s="1">
         <v>42139</v>
       </c>
@@ -43997,7 +44040,7 @@
       <c r="AF579" s="1"/>
       <c r="AK579" s="1"/>
     </row>
-    <row r="580" spans="22:37">
+    <row r="580" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V580" s="1">
         <v>42140</v>
       </c>
@@ -44012,7 +44055,7 @@
       <c r="AF580" s="1"/>
       <c r="AK580" s="1"/>
     </row>
-    <row r="581" spans="22:37">
+    <row r="581" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V581" s="1">
         <v>42141</v>
       </c>
@@ -44027,7 +44070,7 @@
       <c r="AF581" s="1"/>
       <c r="AK581" s="1"/>
     </row>
-    <row r="582" spans="22:37">
+    <row r="582" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V582" s="1">
         <v>42142</v>
       </c>
@@ -44042,7 +44085,7 @@
       <c r="AF582" s="1"/>
       <c r="AK582" s="1"/>
     </row>
-    <row r="583" spans="22:37">
+    <row r="583" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V583" s="1">
         <v>42143</v>
       </c>
@@ -44057,7 +44100,7 @@
       <c r="AF583" s="1"/>
       <c r="AK583" s="1"/>
     </row>
-    <row r="584" spans="22:37">
+    <row r="584" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V584" s="1">
         <v>42144</v>
       </c>
@@ -44072,7 +44115,7 @@
       <c r="AF584" s="1"/>
       <c r="AK584" s="1"/>
     </row>
-    <row r="585" spans="22:37">
+    <row r="585" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V585" s="1">
         <v>42145</v>
       </c>
@@ -44087,7 +44130,7 @@
       <c r="AF585" s="1"/>
       <c r="AK585" s="1"/>
     </row>
-    <row r="586" spans="22:37">
+    <row r="586" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V586" s="1">
         <v>42146</v>
       </c>
@@ -44102,7 +44145,7 @@
       <c r="AF586" s="1"/>
       <c r="AK586" s="1"/>
     </row>
-    <row r="587" spans="22:37">
+    <row r="587" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V587" s="1">
         <v>42147</v>
       </c>
@@ -44117,7 +44160,7 @@
       <c r="AF587" s="1"/>
       <c r="AK587" s="1"/>
     </row>
-    <row r="588" spans="22:37">
+    <row r="588" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V588" s="1">
         <v>42148</v>
       </c>
@@ -44132,7 +44175,7 @@
       <c r="AF588" s="1"/>
       <c r="AK588" s="1"/>
     </row>
-    <row r="589" spans="22:37">
+    <row r="589" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V589" s="1">
         <v>42149</v>
       </c>
@@ -44147,7 +44190,7 @@
       <c r="AF589" s="1"/>
       <c r="AK589" s="1"/>
     </row>
-    <row r="590" spans="22:37">
+    <row r="590" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V590" s="1">
         <v>42150</v>
       </c>
@@ -44162,7 +44205,7 @@
       <c r="AF590" s="1"/>
       <c r="AK590" s="1"/>
     </row>
-    <row r="591" spans="22:37">
+    <row r="591" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V591" s="1">
         <v>42151</v>
       </c>
@@ -44177,7 +44220,7 @@
       <c r="AF591" s="1"/>
       <c r="AK591" s="1"/>
     </row>
-    <row r="592" spans="22:37">
+    <row r="592" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V592" s="1">
         <v>42152</v>
       </c>
@@ -44192,7 +44235,7 @@
       <c r="AF592" s="1"/>
       <c r="AK592" s="1"/>
     </row>
-    <row r="593" spans="22:37">
+    <row r="593" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V593" s="1">
         <v>42153</v>
       </c>
@@ -44207,7 +44250,7 @@
       <c r="AF593" s="1"/>
       <c r="AK593" s="1"/>
     </row>
-    <row r="594" spans="22:37">
+    <row r="594" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V594" s="1">
         <v>42154</v>
       </c>
@@ -44222,7 +44265,7 @@
       <c r="AF594" s="1"/>
       <c r="AK594" s="1"/>
     </row>
-    <row r="595" spans="22:37">
+    <row r="595" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V595" s="1">
         <v>42155</v>
       </c>
@@ -44237,7 +44280,7 @@
       <c r="AF595" s="1"/>
       <c r="AK595" s="1"/>
     </row>
-    <row r="596" spans="22:37">
+    <row r="596" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V596" s="1">
         <v>42156</v>
       </c>
@@ -44252,7 +44295,7 @@
       <c r="AF596" s="1"/>
       <c r="AK596" s="1"/>
     </row>
-    <row r="597" spans="22:37">
+    <row r="597" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V597" s="1">
         <v>42157</v>
       </c>
@@ -44267,7 +44310,7 @@
       <c r="AF597" s="1"/>
       <c r="AK597" s="1"/>
     </row>
-    <row r="598" spans="22:37">
+    <row r="598" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V598" s="1">
         <v>42158</v>
       </c>
@@ -44282,7 +44325,7 @@
       <c r="AF598" s="1"/>
       <c r="AK598" s="1"/>
     </row>
-    <row r="599" spans="22:37">
+    <row r="599" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V599" s="1">
         <v>42159</v>
       </c>
@@ -44297,7 +44340,7 @@
       <c r="AF599" s="1"/>
       <c r="AK599" s="1"/>
     </row>
-    <row r="600" spans="22:37">
+    <row r="600" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V600" s="1">
         <v>42160</v>
       </c>
@@ -44312,7 +44355,7 @@
       <c r="AF600" s="1"/>
       <c r="AK600" s="1"/>
     </row>
-    <row r="601" spans="22:37">
+    <row r="601" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V601" s="1">
         <v>42161</v>
       </c>
@@ -44327,7 +44370,7 @@
       <c r="AF601" s="1"/>
       <c r="AK601" s="1"/>
     </row>
-    <row r="602" spans="22:37">
+    <row r="602" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V602" s="1">
         <v>42162</v>
       </c>
@@ -44342,7 +44385,7 @@
       <c r="AF602" s="1"/>
       <c r="AK602" s="1"/>
     </row>
-    <row r="603" spans="22:37">
+    <row r="603" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V603" s="1">
         <v>42163</v>
       </c>
@@ -44357,7 +44400,7 @@
       <c r="AF603" s="1"/>
       <c r="AK603" s="1"/>
     </row>
-    <row r="604" spans="22:37">
+    <row r="604" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V604" s="1">
         <v>42164</v>
       </c>
@@ -44372,7 +44415,7 @@
       <c r="AF604" s="1"/>
       <c r="AK604" s="1"/>
     </row>
-    <row r="605" spans="22:37">
+    <row r="605" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V605" s="1">
         <v>42165</v>
       </c>
@@ -44387,7 +44430,7 @@
       <c r="AF605" s="1"/>
       <c r="AK605" s="1"/>
     </row>
-    <row r="606" spans="22:37">
+    <row r="606" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V606" s="1">
         <v>42166</v>
       </c>
@@ -44402,7 +44445,7 @@
       <c r="AF606" s="1"/>
       <c r="AK606" s="1"/>
     </row>
-    <row r="607" spans="22:37">
+    <row r="607" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V607" s="1">
         <v>42167</v>
       </c>
@@ -44417,7 +44460,7 @@
       <c r="AF607" s="1"/>
       <c r="AK607" s="1"/>
     </row>
-    <row r="608" spans="22:37">
+    <row r="608" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V608" s="1">
         <v>42168</v>
       </c>
@@ -44432,7 +44475,7 @@
       <c r="AF608" s="1"/>
       <c r="AK608" s="1"/>
     </row>
-    <row r="609" spans="22:37">
+    <row r="609" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V609" s="1">
         <v>42169</v>
       </c>
@@ -44447,7 +44490,7 @@
       <c r="AF609" s="1"/>
       <c r="AK609" s="1"/>
     </row>
-    <row r="610" spans="22:37">
+    <row r="610" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V610" s="1">
         <v>42170</v>
       </c>
@@ -44462,7 +44505,7 @@
       <c r="AF610" s="1"/>
       <c r="AK610" s="1"/>
     </row>
-    <row r="611" spans="22:37">
+    <row r="611" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V611" s="1">
         <v>42171</v>
       </c>
@@ -44477,7 +44520,7 @@
       <c r="AF611" s="1"/>
       <c r="AK611" s="1"/>
     </row>
-    <row r="612" spans="22:37">
+    <row r="612" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V612" s="1">
         <v>42172</v>
       </c>
@@ -44492,7 +44535,7 @@
       <c r="AF612" s="1"/>
       <c r="AK612" s="1"/>
     </row>
-    <row r="613" spans="22:37">
+    <row r="613" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V613" s="1">
         <v>42173</v>
       </c>
@@ -44507,7 +44550,7 @@
       <c r="AF613" s="1"/>
       <c r="AK613" s="1"/>
     </row>
-    <row r="614" spans="22:37">
+    <row r="614" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V614" s="1">
         <v>42174</v>
       </c>
@@ -44522,7 +44565,7 @@
       <c r="AF614" s="1"/>
       <c r="AK614" s="1"/>
     </row>
-    <row r="615" spans="22:37">
+    <row r="615" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V615" s="1">
         <v>42175</v>
       </c>
@@ -44537,7 +44580,7 @@
       <c r="AF615" s="1"/>
       <c r="AK615" s="1"/>
     </row>
-    <row r="616" spans="22:37">
+    <row r="616" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V616" s="1">
         <v>42176</v>
       </c>
@@ -44552,7 +44595,7 @@
       <c r="AF616" s="1"/>
       <c r="AK616" s="1"/>
     </row>
-    <row r="617" spans="22:37">
+    <row r="617" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V617" s="1">
         <v>42177</v>
       </c>
@@ -44567,7 +44610,7 @@
       <c r="AF617" s="1"/>
       <c r="AK617" s="1"/>
     </row>
-    <row r="618" spans="22:37">
+    <row r="618" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V618" s="1">
         <v>42178</v>
       </c>
@@ -44582,7 +44625,7 @@
       <c r="AF618" s="1"/>
       <c r="AK618" s="1"/>
     </row>
-    <row r="619" spans="22:37">
+    <row r="619" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V619" s="1">
         <v>42179</v>
       </c>
@@ -44597,7 +44640,7 @@
       <c r="AF619" s="1"/>
       <c r="AK619" s="1"/>
     </row>
-    <row r="620" spans="22:37">
+    <row r="620" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V620" s="1">
         <v>42180</v>
       </c>
@@ -44612,7 +44655,7 @@
       <c r="AF620" s="1"/>
       <c r="AK620" s="1"/>
     </row>
-    <row r="621" spans="22:37">
+    <row r="621" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V621" s="1">
         <v>42181</v>
       </c>
@@ -44627,7 +44670,7 @@
       <c r="AF621" s="1"/>
       <c r="AK621" s="1"/>
     </row>
-    <row r="622" spans="22:37">
+    <row r="622" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V622" s="1">
         <v>42182</v>
       </c>
@@ -44642,7 +44685,7 @@
       <c r="AF622" s="1"/>
       <c r="AK622" s="1"/>
     </row>
-    <row r="623" spans="22:37">
+    <row r="623" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V623" s="1">
         <v>42183</v>
       </c>
@@ -44657,7 +44700,7 @@
       <c r="AF623" s="1"/>
       <c r="AK623" s="1"/>
     </row>
-    <row r="624" spans="22:37">
+    <row r="624" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V624" s="1">
         <v>42184</v>
       </c>
@@ -44672,7 +44715,7 @@
       <c r="AF624" s="1"/>
       <c r="AK624" s="1"/>
     </row>
-    <row r="625" spans="22:37">
+    <row r="625" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V625" s="1">
         <v>42185</v>
       </c>
@@ -44687,7 +44730,7 @@
       <c r="AF625" s="1"/>
       <c r="AK625" s="1"/>
     </row>
-    <row r="626" spans="22:37">
+    <row r="626" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V626" s="1">
         <v>42186</v>
       </c>
@@ -44702,7 +44745,7 @@
       <c r="AF626" s="1"/>
       <c r="AK626" s="1"/>
     </row>
-    <row r="627" spans="22:37">
+    <row r="627" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V627" s="1">
         <v>42187</v>
       </c>
@@ -44717,7 +44760,7 @@
       <c r="AF627" s="1"/>
       <c r="AK627" s="1"/>
     </row>
-    <row r="628" spans="22:37">
+    <row r="628" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V628" s="1">
         <v>42188</v>
       </c>
@@ -44732,7 +44775,7 @@
       <c r="AF628" s="1"/>
       <c r="AK628" s="1"/>
     </row>
-    <row r="629" spans="22:37">
+    <row r="629" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V629" s="1">
         <v>42189</v>
       </c>
@@ -44747,7 +44790,7 @@
       <c r="AF629" s="1"/>
       <c r="AK629" s="1"/>
     </row>
-    <row r="630" spans="22:37">
+    <row r="630" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V630" s="1">
         <v>42190</v>
       </c>
@@ -44762,7 +44805,7 @@
       <c r="AF630" s="1"/>
       <c r="AK630" s="1"/>
     </row>
-    <row r="631" spans="22:37">
+    <row r="631" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V631" s="1">
         <v>42191</v>
       </c>
@@ -44777,7 +44820,7 @@
       <c r="AF631" s="1"/>
       <c r="AK631" s="1"/>
     </row>
-    <row r="632" spans="22:37">
+    <row r="632" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V632" s="1">
         <v>42192</v>
       </c>
@@ -44792,7 +44835,7 @@
       <c r="AF632" s="1"/>
       <c r="AK632" s="1"/>
     </row>
-    <row r="633" spans="22:37">
+    <row r="633" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V633" s="1">
         <v>42193</v>
       </c>
@@ -44807,7 +44850,7 @@
       <c r="AF633" s="1"/>
       <c r="AK633" s="1"/>
     </row>
-    <row r="634" spans="22:37">
+    <row r="634" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V634" s="1">
         <v>42194</v>
       </c>
@@ -44822,7 +44865,7 @@
       <c r="AF634" s="1"/>
       <c r="AK634" s="1"/>
     </row>
-    <row r="635" spans="22:37">
+    <row r="635" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V635" s="1">
         <v>42195</v>
       </c>
@@ -44837,7 +44880,7 @@
       <c r="AF635" s="1"/>
       <c r="AK635" s="1"/>
     </row>
-    <row r="636" spans="22:37">
+    <row r="636" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V636" s="1">
         <v>42196</v>
       </c>
@@ -44852,7 +44895,7 @@
       <c r="AF636" s="1"/>
       <c r="AK636" s="1"/>
     </row>
-    <row r="637" spans="22:37">
+    <row r="637" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V637" s="1">
         <v>42197</v>
       </c>
@@ -44867,7 +44910,7 @@
       <c r="AF637" s="1"/>
       <c r="AK637" s="1"/>
     </row>
-    <row r="638" spans="22:37">
+    <row r="638" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V638" s="1">
         <v>42198</v>
       </c>
@@ -44882,7 +44925,7 @@
       <c r="AF638" s="1"/>
       <c r="AK638" s="1"/>
     </row>
-    <row r="639" spans="22:37">
+    <row r="639" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V639" s="1">
         <v>42199</v>
       </c>
@@ -44897,7 +44940,7 @@
       <c r="AF639" s="1"/>
       <c r="AK639" s="1"/>
     </row>
-    <row r="640" spans="22:37">
+    <row r="640" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V640" s="1">
         <v>42200</v>
       </c>
@@ -44912,7 +44955,7 @@
       <c r="AF640" s="1"/>
       <c r="AK640" s="1"/>
     </row>
-    <row r="641" spans="22:37">
+    <row r="641" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V641" s="1">
         <v>42201</v>
       </c>
@@ -44927,7 +44970,7 @@
       <c r="AF641" s="1"/>
       <c r="AK641" s="1"/>
     </row>
-    <row r="642" spans="22:37">
+    <row r="642" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V642" s="1">
         <v>42202</v>
       </c>
@@ -44942,7 +44985,7 @@
       <c r="AF642" s="1"/>
       <c r="AK642" s="1"/>
     </row>
-    <row r="643" spans="22:37">
+    <row r="643" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V643" s="1">
         <v>42203</v>
       </c>
@@ -44957,7 +45000,7 @@
       <c r="AF643" s="1"/>
       <c r="AK643" s="1"/>
     </row>
-    <row r="644" spans="22:37">
+    <row r="644" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V644" s="1">
         <v>42204</v>
       </c>
@@ -44972,7 +45015,7 @@
       <c r="AF644" s="1"/>
       <c r="AK644" s="1"/>
     </row>
-    <row r="645" spans="22:37">
+    <row r="645" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V645" s="1">
         <v>42205</v>
       </c>
@@ -44987,7 +45030,7 @@
       <c r="AF645" s="1"/>
       <c r="AK645" s="1"/>
     </row>
-    <row r="646" spans="22:37">
+    <row r="646" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V646" s="1">
         <v>42206</v>
       </c>
@@ -45002,7 +45045,7 @@
       <c r="AF646" s="1"/>
       <c r="AK646" s="1"/>
     </row>
-    <row r="647" spans="22:37">
+    <row r="647" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V647" s="1">
         <v>42207</v>
       </c>
@@ -45017,7 +45060,7 @@
       <c r="AF647" s="1"/>
       <c r="AK647" s="1"/>
     </row>
-    <row r="648" spans="22:37">
+    <row r="648" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V648" s="1">
         <v>42208</v>
       </c>
@@ -45032,7 +45075,7 @@
       <c r="AF648" s="1"/>
       <c r="AK648" s="1"/>
     </row>
-    <row r="649" spans="22:37">
+    <row r="649" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V649" s="1">
         <v>42209</v>
       </c>
@@ -45047,7 +45090,7 @@
       <c r="AF649" s="1"/>
       <c r="AK649" s="1"/>
     </row>
-    <row r="650" spans="22:37">
+    <row r="650" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V650" s="1">
         <v>42210</v>
       </c>
@@ -45062,7 +45105,7 @@
       <c r="AF650" s="1"/>
       <c r="AK650" s="1"/>
     </row>
-    <row r="651" spans="22:37">
+    <row r="651" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V651" s="1">
         <v>42211</v>
       </c>
@@ -45077,7 +45120,7 @@
       <c r="AF651" s="1"/>
       <c r="AK651" s="1"/>
     </row>
-    <row r="652" spans="22:37">
+    <row r="652" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V652" s="1">
         <v>42212</v>
       </c>
@@ -45092,7 +45135,7 @@
       <c r="AF652" s="1"/>
       <c r="AK652" s="1"/>
     </row>
-    <row r="653" spans="22:37">
+    <row r="653" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V653" s="1">
         <v>42213</v>
       </c>
@@ -45107,7 +45150,7 @@
       <c r="AF653" s="1"/>
       <c r="AK653" s="1"/>
     </row>
-    <row r="654" spans="22:37">
+    <row r="654" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V654" s="1">
         <v>42214</v>
       </c>
@@ -45122,7 +45165,7 @@
       <c r="AF654" s="1"/>
       <c r="AK654" s="1"/>
     </row>
-    <row r="655" spans="22:37">
+    <row r="655" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V655" s="1">
         <v>42215</v>
       </c>
@@ -45137,7 +45180,7 @@
       <c r="AF655" s="1"/>
       <c r="AK655" s="1"/>
     </row>
-    <row r="656" spans="22:37">
+    <row r="656" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V656" s="1">
         <v>42216</v>
       </c>
@@ -45152,7 +45195,7 @@
       <c r="AF656" s="1"/>
       <c r="AK656" s="1"/>
     </row>
-    <row r="657" spans="22:37">
+    <row r="657" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V657" s="1">
         <v>42217</v>
       </c>
@@ -45167,7 +45210,7 @@
       <c r="AF657" s="1"/>
       <c r="AK657" s="1"/>
     </row>
-    <row r="658" spans="22:37">
+    <row r="658" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V658" s="1">
         <v>42218</v>
       </c>
@@ -45182,7 +45225,7 @@
       <c r="AF658" s="1"/>
       <c r="AK658" s="1"/>
     </row>
-    <row r="659" spans="22:37">
+    <row r="659" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V659" s="1">
         <v>42219</v>
       </c>
@@ -45197,7 +45240,7 @@
       <c r="AF659" s="1"/>
       <c r="AK659" s="1"/>
     </row>
-    <row r="660" spans="22:37">
+    <row r="660" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V660" s="1">
         <v>42220</v>
       </c>
@@ -45212,7 +45255,7 @@
       <c r="AF660" s="1"/>
       <c r="AK660" s="1"/>
     </row>
-    <row r="661" spans="22:37">
+    <row r="661" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V661" s="1">
         <v>42221</v>
       </c>
@@ -45227,7 +45270,7 @@
       <c r="AF661" s="1"/>
       <c r="AK661" s="1"/>
     </row>
-    <row r="662" spans="22:37">
+    <row r="662" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V662" s="1">
         <v>42222</v>
       </c>
@@ -45242,7 +45285,7 @@
       <c r="AF662" s="1"/>
       <c r="AK662" s="1"/>
     </row>
-    <row r="663" spans="22:37">
+    <row r="663" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V663" s="1">
         <v>42223</v>
       </c>
@@ -45257,7 +45300,7 @@
       <c r="AF663" s="1"/>
       <c r="AK663" s="1"/>
     </row>
-    <row r="664" spans="22:37">
+    <row r="664" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V664" s="1">
         <v>42224</v>
       </c>
@@ -45272,7 +45315,7 @@
       <c r="AF664" s="1"/>
       <c r="AK664" s="1"/>
     </row>
-    <row r="665" spans="22:37">
+    <row r="665" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V665" s="1">
         <v>42225</v>
       </c>
@@ -45287,7 +45330,7 @@
       <c r="AF665" s="1"/>
       <c r="AK665" s="1"/>
     </row>
-    <row r="666" spans="22:37">
+    <row r="666" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V666" s="1">
         <v>42226</v>
       </c>
@@ -45302,7 +45345,7 @@
       <c r="AF666" s="1"/>
       <c r="AK666" s="1"/>
     </row>
-    <row r="667" spans="22:37">
+    <row r="667" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V667" s="1">
         <v>42227</v>
       </c>
@@ -45317,7 +45360,7 @@
       <c r="AF667" s="1"/>
       <c r="AK667" s="1"/>
     </row>
-    <row r="668" spans="22:37">
+    <row r="668" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V668" s="1">
         <v>42228</v>
       </c>
@@ -45332,7 +45375,7 @@
       <c r="AF668" s="1"/>
       <c r="AK668" s="1"/>
     </row>
-    <row r="669" spans="22:37">
+    <row r="669" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V669" s="1">
         <v>42229</v>
       </c>
@@ -45347,7 +45390,7 @@
       <c r="AF669" s="1"/>
       <c r="AK669" s="1"/>
     </row>
-    <row r="670" spans="22:37">
+    <row r="670" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V670" s="1">
         <v>42230</v>
       </c>
@@ -45362,7 +45405,7 @@
       <c r="AF670" s="1"/>
       <c r="AK670" s="1"/>
     </row>
-    <row r="671" spans="22:37">
+    <row r="671" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V671" s="1">
         <v>42231</v>
       </c>
@@ -45377,7 +45420,7 @@
       <c r="AF671" s="1"/>
       <c r="AK671" s="1"/>
     </row>
-    <row r="672" spans="22:37">
+    <row r="672" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V672" s="1">
         <v>42232</v>
       </c>
@@ -45392,7 +45435,7 @@
       <c r="AF672" s="1"/>
       <c r="AK672" s="1"/>
     </row>
-    <row r="673" spans="22:37">
+    <row r="673" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V673" s="1">
         <v>42233</v>
       </c>
@@ -45407,7 +45450,7 @@
       <c r="AF673" s="1"/>
       <c r="AK673" s="1"/>
     </row>
-    <row r="674" spans="22:37">
+    <row r="674" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V674" s="1">
         <v>42234</v>
       </c>
@@ -45422,7 +45465,7 @@
       <c r="AF674" s="1"/>
       <c r="AK674" s="1"/>
     </row>
-    <row r="675" spans="22:37">
+    <row r="675" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V675" s="1">
         <v>42235</v>
       </c>
@@ -45437,7 +45480,7 @@
       <c r="AF675" s="1"/>
       <c r="AK675" s="1"/>
     </row>
-    <row r="676" spans="22:37">
+    <row r="676" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V676" s="1">
         <v>42236</v>
       </c>
@@ -45452,7 +45495,7 @@
       <c r="AF676" s="1"/>
       <c r="AK676" s="1"/>
     </row>
-    <row r="677" spans="22:37">
+    <row r="677" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V677" s="1">
         <v>42237</v>
       </c>
@@ -45467,7 +45510,7 @@
       <c r="AF677" s="1"/>
       <c r="AK677" s="1"/>
     </row>
-    <row r="678" spans="22:37">
+    <row r="678" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V678" s="1">
         <v>42238</v>
       </c>
@@ -45482,7 +45525,7 @@
       <c r="AF678" s="1"/>
       <c r="AK678" s="1"/>
     </row>
-    <row r="679" spans="22:37">
+    <row r="679" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V679" s="1">
         <v>42239</v>
       </c>
@@ -45497,7 +45540,7 @@
       <c r="AF679" s="1"/>
       <c r="AK679" s="1"/>
     </row>
-    <row r="680" spans="22:37">
+    <row r="680" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V680" s="1">
         <v>42240</v>
       </c>
@@ -45512,7 +45555,7 @@
       <c r="AF680" s="1"/>
       <c r="AK680" s="1"/>
     </row>
-    <row r="681" spans="22:37">
+    <row r="681" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V681" s="1">
         <v>42241</v>
       </c>
@@ -45527,7 +45570,7 @@
       <c r="AF681" s="1"/>
       <c r="AK681" s="1"/>
     </row>
-    <row r="682" spans="22:37">
+    <row r="682" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V682" s="1">
         <v>42242</v>
       </c>
@@ -45542,7 +45585,7 @@
       <c r="AF682" s="1"/>
       <c r="AK682" s="1"/>
     </row>
-    <row r="683" spans="22:37">
+    <row r="683" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V683" s="1">
         <v>42243</v>
       </c>
@@ -45557,7 +45600,7 @@
       <c r="AF683" s="1"/>
       <c r="AK683" s="1"/>
     </row>
-    <row r="684" spans="22:37">
+    <row r="684" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V684" s="1">
         <v>42244</v>
       </c>
@@ -45572,7 +45615,7 @@
       <c r="AF684" s="1"/>
       <c r="AK684" s="1"/>
     </row>
-    <row r="685" spans="22:37">
+    <row r="685" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V685" s="1">
         <v>42245</v>
       </c>
@@ -45587,7 +45630,7 @@
       <c r="AF685" s="1"/>
       <c r="AK685" s="1"/>
     </row>
-    <row r="686" spans="22:37">
+    <row r="686" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V686" s="1">
         <v>42246</v>
       </c>
@@ -45602,7 +45645,7 @@
       <c r="AF686" s="1"/>
       <c r="AK686" s="1"/>
     </row>
-    <row r="687" spans="22:37">
+    <row r="687" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V687" s="1">
         <v>42247</v>
       </c>
@@ -45617,7 +45660,7 @@
       <c r="AF687" s="1"/>
       <c r="AK687" s="1"/>
     </row>
-    <row r="688" spans="22:37">
+    <row r="688" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V688" s="1">
         <v>42248</v>
       </c>
@@ -45632,7 +45675,7 @@
       <c r="AF688" s="1"/>
       <c r="AK688" s="1"/>
     </row>
-    <row r="689" spans="22:37">
+    <row r="689" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V689" s="1">
         <v>42249</v>
       </c>
@@ -45647,7 +45690,7 @@
       <c r="AF689" s="1"/>
       <c r="AK689" s="1"/>
     </row>
-    <row r="690" spans="22:37">
+    <row r="690" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V690" s="1">
         <v>42250</v>
       </c>
@@ -45662,7 +45705,7 @@
       <c r="AF690" s="1"/>
       <c r="AK690" s="1"/>
     </row>
-    <row r="691" spans="22:37">
+    <row r="691" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V691" s="1">
         <v>42251</v>
       </c>
@@ -45677,7 +45720,7 @@
       <c r="AF691" s="1"/>
       <c r="AK691" s="1"/>
     </row>
-    <row r="692" spans="22:37">
+    <row r="692" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V692" s="1">
         <v>42252</v>
       </c>
@@ -45692,7 +45735,7 @@
       <c r="AF692" s="1"/>
       <c r="AK692" s="1"/>
     </row>
-    <row r="693" spans="22:37">
+    <row r="693" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V693" s="1">
         <v>42253</v>
       </c>
@@ -45707,7 +45750,7 @@
       <c r="AF693" s="1"/>
       <c r="AK693" s="1"/>
     </row>
-    <row r="694" spans="22:37">
+    <row r="694" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V694" s="1">
         <v>42254</v>
       </c>
@@ -45722,7 +45765,7 @@
       <c r="AF694" s="1"/>
       <c r="AK694" s="1"/>
     </row>
-    <row r="695" spans="22:37">
+    <row r="695" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V695" s="1">
         <v>42255</v>
       </c>
@@ -45737,7 +45780,7 @@
       <c r="AF695" s="1"/>
       <c r="AK695" s="1"/>
     </row>
-    <row r="696" spans="22:37">
+    <row r="696" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V696" s="1">
         <v>42256</v>
       </c>
@@ -45752,7 +45795,7 @@
       <c r="AF696" s="1"/>
       <c r="AK696" s="1"/>
     </row>
-    <row r="697" spans="22:37">
+    <row r="697" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V697" s="1">
         <v>42257</v>
       </c>
@@ -45767,7 +45810,7 @@
       <c r="AF697" s="1"/>
       <c r="AK697" s="1"/>
     </row>
-    <row r="698" spans="22:37">
+    <row r="698" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V698" s="1">
         <v>42258</v>
       </c>
@@ -45782,7 +45825,7 @@
       <c r="AF698" s="1"/>
       <c r="AK698" s="1"/>
     </row>
-    <row r="699" spans="22:37">
+    <row r="699" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V699" s="1">
         <v>42259</v>
       </c>
@@ -45797,7 +45840,7 @@
       <c r="AF699" s="1"/>
       <c r="AK699" s="1"/>
     </row>
-    <row r="700" spans="22:37">
+    <row r="700" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V700" s="1">
         <v>42260</v>
       </c>
@@ -45812,7 +45855,7 @@
       <c r="AF700" s="1"/>
       <c r="AK700" s="1"/>
     </row>
-    <row r="701" spans="22:37">
+    <row r="701" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V701" s="1">
         <v>42261</v>
       </c>
@@ -45827,7 +45870,7 @@
       <c r="AF701" s="1"/>
       <c r="AK701" s="1"/>
     </row>
-    <row r="702" spans="22:37">
+    <row r="702" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V702" s="1">
         <v>42262</v>
       </c>
@@ -45842,7 +45885,7 @@
       <c r="AF702" s="1"/>
       <c r="AK702" s="1"/>
     </row>
-    <row r="703" spans="22:37">
+    <row r="703" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V703" s="1">
         <v>42263</v>
       </c>
@@ -45857,7 +45900,7 @@
       <c r="AF703" s="1"/>
       <c r="AK703" s="1"/>
     </row>
-    <row r="704" spans="22:37">
+    <row r="704" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V704" s="1">
         <v>42264</v>
       </c>
@@ -45872,7 +45915,7 @@
       <c r="AF704" s="1"/>
       <c r="AK704" s="1"/>
     </row>
-    <row r="705" spans="22:37">
+    <row r="705" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V705" s="1">
         <v>42265</v>
       </c>
@@ -45887,7 +45930,7 @@
       <c r="AF705" s="1"/>
       <c r="AK705" s="1"/>
     </row>
-    <row r="706" spans="22:37">
+    <row r="706" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V706" s="1">
         <v>42266</v>
       </c>
@@ -45902,7 +45945,7 @@
       <c r="AF706" s="1"/>
       <c r="AK706" s="1"/>
     </row>
-    <row r="707" spans="22:37">
+    <row r="707" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V707" s="1">
         <v>42267</v>
       </c>
@@ -45917,7 +45960,7 @@
       <c r="AF707" s="1"/>
       <c r="AK707" s="1"/>
     </row>
-    <row r="708" spans="22:37">
+    <row r="708" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V708" s="1">
         <v>42268</v>
       </c>
@@ -45932,7 +45975,7 @@
       <c r="AF708" s="1"/>
       <c r="AK708" s="1"/>
     </row>
-    <row r="709" spans="22:37">
+    <row r="709" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V709" s="1">
         <v>42269</v>
       </c>
@@ -45947,7 +45990,7 @@
       <c r="AF709" s="1"/>
       <c r="AK709" s="1"/>
     </row>
-    <row r="710" spans="22:37">
+    <row r="710" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V710" s="1">
         <v>42270</v>
       </c>
@@ -45962,7 +46005,7 @@
       <c r="AF710" s="1"/>
       <c r="AK710" s="1"/>
     </row>
-    <row r="711" spans="22:37">
+    <row r="711" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V711" s="1">
         <v>42271</v>
       </c>
@@ -45977,7 +46020,7 @@
       <c r="AF711" s="1"/>
       <c r="AK711" s="1"/>
     </row>
-    <row r="712" spans="22:37">
+    <row r="712" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V712" s="1">
         <v>42272</v>
       </c>
@@ -45992,7 +46035,7 @@
       <c r="AF712" s="1"/>
       <c r="AK712" s="1"/>
     </row>
-    <row r="713" spans="22:37">
+    <row r="713" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V713" s="1">
         <v>42273</v>
       </c>
@@ -46007,7 +46050,7 @@
       <c r="AF713" s="1"/>
       <c r="AK713" s="1"/>
     </row>
-    <row r="714" spans="22:37">
+    <row r="714" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V714" s="1">
         <v>42274</v>
       </c>
@@ -46022,7 +46065,7 @@
       <c r="AF714" s="1"/>
       <c r="AK714" s="1"/>
     </row>
-    <row r="715" spans="22:37">
+    <row r="715" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V715" s="1">
         <v>42275</v>
       </c>
@@ -46037,7 +46080,7 @@
       <c r="AF715" s="1"/>
       <c r="AK715" s="1"/>
     </row>
-    <row r="716" spans="22:37">
+    <row r="716" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V716" s="1">
         <v>42276</v>
       </c>
@@ -46052,7 +46095,7 @@
       <c r="AF716" s="1"/>
       <c r="AK716" s="1"/>
     </row>
-    <row r="717" spans="22:37">
+    <row r="717" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V717" s="1">
         <v>42277</v>
       </c>
@@ -46067,7 +46110,7 @@
       <c r="AF717" s="1"/>
       <c r="AK717" s="1"/>
     </row>
-    <row r="718" spans="22:37">
+    <row r="718" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V718" s="1">
         <v>42278</v>
       </c>
@@ -46082,7 +46125,7 @@
       <c r="AF718" s="1"/>
       <c r="AK718" s="1"/>
     </row>
-    <row r="719" spans="22:37">
+    <row r="719" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V719" s="1">
         <v>42279</v>
       </c>
@@ -46097,7 +46140,7 @@
       <c r="AF719" s="1"/>
       <c r="AK719" s="1"/>
     </row>
-    <row r="720" spans="22:37">
+    <row r="720" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V720" s="1">
         <v>42280</v>
       </c>
@@ -46112,7 +46155,7 @@
       <c r="AF720" s="1"/>
       <c r="AK720" s="1"/>
     </row>
-    <row r="721" spans="22:37">
+    <row r="721" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V721" s="1">
         <v>42281</v>
       </c>
@@ -46127,7 +46170,7 @@
       <c r="AF721" s="1"/>
       <c r="AK721" s="1"/>
     </row>
-    <row r="722" spans="22:37">
+    <row r="722" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V722" s="1">
         <v>42282</v>
       </c>
@@ -46142,7 +46185,7 @@
       <c r="AF722" s="1"/>
       <c r="AK722" s="1"/>
     </row>
-    <row r="723" spans="22:37">
+    <row r="723" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V723" s="1">
         <v>42283</v>
       </c>
@@ -46157,7 +46200,7 @@
       <c r="AF723" s="1"/>
       <c r="AK723" s="1"/>
     </row>
-    <row r="724" spans="22:37">
+    <row r="724" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V724" s="1">
         <v>42284</v>
       </c>
@@ -46172,7 +46215,7 @@
       <c r="AF724" s="1"/>
       <c r="AK724" s="1"/>
     </row>
-    <row r="725" spans="22:37">
+    <row r="725" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V725" s="1">
         <v>42285</v>
       </c>
@@ -46187,7 +46230,7 @@
       <c r="AF725" s="1"/>
       <c r="AK725" s="1"/>
     </row>
-    <row r="726" spans="22:37">
+    <row r="726" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V726" s="1">
         <v>42286</v>
       </c>
@@ -46202,7 +46245,7 @@
       <c r="AF726" s="1"/>
       <c r="AK726" s="1"/>
     </row>
-    <row r="727" spans="22:37">
+    <row r="727" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V727" s="1">
         <v>42287</v>
       </c>
@@ -46217,7 +46260,7 @@
       <c r="AF727" s="1"/>
       <c r="AK727" s="1"/>
     </row>
-    <row r="728" spans="22:37">
+    <row r="728" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V728" s="1">
         <v>42288</v>
       </c>
@@ -46232,7 +46275,7 @@
       <c r="AF728" s="1"/>
       <c r="AK728" s="1"/>
     </row>
-    <row r="729" spans="22:37">
+    <row r="729" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V729" s="1">
         <v>42289</v>
       </c>
@@ -46247,7 +46290,7 @@
       <c r="AF729" s="1"/>
       <c r="AK729" s="1"/>
     </row>
-    <row r="730" spans="22:37">
+    <row r="730" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V730" s="1">
         <v>42290</v>
       </c>
@@ -46262,7 +46305,7 @@
       <c r="AF730" s="1"/>
       <c r="AK730" s="1"/>
     </row>
-    <row r="731" spans="22:37">
+    <row r="731" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V731" s="1">
         <v>42291</v>
       </c>
@@ -46277,7 +46320,7 @@
       <c r="AF731" s="1"/>
       <c r="AK731" s="1"/>
     </row>
-    <row r="732" spans="22:37">
+    <row r="732" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V732" s="1">
         <v>42292</v>
       </c>
@@ -46292,7 +46335,7 @@
       <c r="AF732" s="1"/>
       <c r="AK732" s="1"/>
     </row>
-    <row r="733" spans="22:37">
+    <row r="733" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V733" s="1">
         <v>42293</v>
       </c>
@@ -46307,7 +46350,7 @@
       <c r="AF733" s="1"/>
       <c r="AK733" s="1"/>
     </row>
-    <row r="734" spans="22:37">
+    <row r="734" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V734" s="1">
         <v>42294</v>
       </c>
@@ -46323,7 +46366,6 @@
       <c r="AK734" s="1"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="AP9:AQ512">
     <sortCondition ref="AP9:AP512"/>
   </sortState>
@@ -46338,41 +46380,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -46383,7 +46425,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>124</v>
       </c>
@@ -46391,17 +46433,17 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -46409,13 +46451,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -46427,16 +46468,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>203</v>
       </c>
@@ -46447,7 +46488,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42350</v>
       </c>
@@ -46458,7 +46499,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42356</v>
       </c>
@@ -46469,7 +46510,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42356</v>
       </c>
@@ -46480,12 +46521,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42360</v>
       </c>
@@ -46496,7 +46537,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42370</v>
       </c>
@@ -46504,10 +46545,10 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42370</v>
       </c>
@@ -46515,7 +46556,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42370</v>
       </c>
@@ -46524,7 +46565,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -46536,16 +46576,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42350</v>
       </c>
@@ -46553,13 +46593,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>260</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -46571,35 +46610,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C46" sqref="C46:H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="11.625" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>104</v>
       </c>
@@ -46607,7 +46646,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
         <v>267</v>
       </c>
@@ -46616,7 +46655,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>42343</v>
       </c>
@@ -46624,7 +46663,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -46654,7 +46693,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>210</v>
       </c>
@@ -46690,7 +46729,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>213</v>
       </c>
@@ -46726,7 +46765,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>61</v>
       </c>
@@ -46750,7 +46789,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>142</v>
       </c>
@@ -46774,7 +46813,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>176</v>
       </c>
@@ -46810,22 +46849,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>287</v>
       </c>
@@ -46857,7 +46896,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>210</v>
       </c>
@@ -46892,12 +46931,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>176</v>
       </c>
@@ -46933,7 +46972,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>178</v>
       </c>
@@ -46944,7 +46983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>179</v>
       </c>
@@ -46955,7 +46994,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>180</v>
       </c>
@@ -46966,12 +47005,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>126</v>
       </c>
@@ -46995,7 +47034,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>127</v>
       </c>
@@ -47022,7 +47061,7 @@
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>248</v>
       </c>
@@ -47058,7 +47097,7 @@
         <v>1.8499999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>142</v>
       </c>
@@ -47082,7 +47121,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>143</v>
       </c>
@@ -47106,12 +47145,12 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>66</v>
       </c>
@@ -47147,7 +47186,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>58</v>
       </c>
@@ -47183,7 +47222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>60</v>
       </c>
@@ -47207,7 +47246,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>61</v>
       </c>
@@ -47231,7 +47270,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>281</v>
       </c>
@@ -47255,7 +47294,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>67</v>
       </c>
@@ -47269,7 +47308,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>210</v>
       </c>
@@ -47289,12 +47328,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>62</v>
       </c>
@@ -47321,7 +47360,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>258</v>
       </c>
@@ -47339,7 +47378,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>52</v>
       </c>
@@ -47369,7 +47408,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>55</v>
       </c>
@@ -47405,7 +47444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>291</v>
       </c>
@@ -47429,7 +47468,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>293</v>
       </c>
@@ -47450,12 +47489,12 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="8" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>214</v>
       </c>
@@ -47476,12 +47515,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>248</v>
       </c>
@@ -47505,7 +47544,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>223</v>
       </c>
@@ -47529,7 +47568,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>144</v>
       </c>
@@ -47553,7 +47592,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>234</v>
       </c>
@@ -47580,7 +47619,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>237</v>
       </c>
@@ -47604,12 +47643,12 @@
         <v>3.6729999999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B72" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>221</v>
       </c>
@@ -47639,7 +47678,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="74" spans="2:13">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>276</v>
       </c>
@@ -47654,7 +47693,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="2:13">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>278</v>
       </c>
@@ -47669,7 +47708,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="2:13">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>279</v>
       </c>
@@ -47685,7 +47724,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -47698,34 +47736,40 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="B2:H69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54:H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="I3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>104</v>
       </c>
       <c r="F4" s="9">
         <v>500000</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="I4">
+        <v>1.1120000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>267</v>
       </c>
@@ -47734,554 +47778,1058 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>210</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>176</v>
       </c>
       <c r="D11" t="s">
         <v>175</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>80</v>
       </c>
-      <c r="G11">
-        <f>$F$5/(3*F11*E11)</f>
+      <c r="H11">
+        <f>$F$5/(3*G11*F11)</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>214</v>
       </c>
       <c r="D12" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="E12" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>317</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H15" si="0">$F$5/(3*G12*F12)</f>
+        <v>0.63091482649842268</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>100</v>
       </c>
       <c r="D13" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="E13" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>122</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>4.0983606557377046</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>101</v>
       </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="D14" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="11">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>42.63</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>2.345765892563922</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="E15" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G15">
+        <v>85.89</v>
+      </c>
+      <c r="H15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" t="s">
+      <c r="E17" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F17" s="12">
+        <f>5/I4</f>
+        <v>4.4964028776978413</v>
+      </c>
+      <c r="G17">
+        <v>169.6</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H18" si="1">$F$5/(3*G17*F17)</f>
+        <v>1.3113207547169814</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F18" s="12">
+        <f>10/I4</f>
+        <v>8.9928057553956826</v>
+      </c>
+      <c r="G18">
+        <v>42.63</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>2.6084916725310809</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="C20" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>142</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>235</v>
       </c>
-      <c r="E20">
+      <c r="E21" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F21">
         <v>12500</v>
       </c>
-      <c r="F20">
+      <c r="G21">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="G20">
-        <f>$F$5/(3*F20*E20)</f>
+      <c r="H21">
+        <f>$F$5/(3*G21*F21)</f>
         <v>2.4615384615384617</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="C21" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>126</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>229</v>
       </c>
-      <c r="E21">
+      <c r="E22" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F22">
         <v>10000</v>
       </c>
-      <c r="F21">
+      <c r="G22">
         <v>2.4E-2</v>
       </c>
-      <c r="G21">
-        <f t="shared" ref="G21:G23" si="0">$F$5/(3*F21*E21)</f>
+      <c r="H22">
+        <f t="shared" ref="H22:H24" si="2">$F$5/(3*G22*F22)</f>
         <v>4.1666666666666661</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="C22" t="s">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>127</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>115</v>
       </c>
-      <c r="E22">
+      <c r="E23" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F23">
         <v>6250</v>
       </c>
-      <c r="F22">
+      <c r="G23">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
+      <c r="H23">
+        <f t="shared" si="2"/>
         <v>4.63768115942029</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="C23" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
         <v>218</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>140</v>
       </c>
-      <c r="E23">
+      <c r="E24" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F24">
         <v>10000</v>
       </c>
-      <c r="F23">
+      <c r="G24">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
+      <c r="H24">
+        <f t="shared" si="2"/>
         <v>5.4054054054054061</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
-      <c r="C24" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>143</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>236</v>
       </c>
-      <c r="E24">
+      <c r="E25" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F25">
         <v>12500</v>
       </c>
-      <c r="F24">
+      <c r="G25">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G24">
-        <f>$F$5/(3*F24*E24)</f>
+      <c r="H25">
+        <f>$F$5/(3*G25*F25)</f>
         <v>3.0769230769230771</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
-      <c r="C25" t="s">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>237</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" t="s">
+      <c r="E27" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F27">
+        <v>62500</v>
+      </c>
+      <c r="G27">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H27">
+        <f>$F$5/(3*G27*F27)</f>
+        <v>2.8070175438596492E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
-      <c r="C28" t="s">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="C29" t="s">
+      <c r="E30" t="s">
+        <v>306</v>
+      </c>
+      <c r="F30" s="12">
+        <f>1000/I4</f>
+        <v>899.2805755395683</v>
+      </c>
+      <c r="G30">
+        <v>0.64</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:H34" si="3">$F$5/(3*G30*F30)</f>
+        <v>1.7375000000000003</v>
+      </c>
+      <c r="I30" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="C30" t="s">
+      <c r="E31" t="s">
+        <v>304</v>
+      </c>
+      <c r="F31">
+        <v>2500</v>
+      </c>
+      <c r="G31">
+        <v>0.2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>1.9999999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>3</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="C31" t="s">
+      <c r="E32" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F32">
+        <v>1000</v>
+      </c>
+      <c r="G32">
+        <v>0.6</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
         <v>4</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="C32" t="s">
+      <c r="E33" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F33">
+        <v>1000</v>
+      </c>
+      <c r="G33">
+        <v>0.48</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>5</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" t="s">
+      <c r="E34" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F34">
+        <v>250</v>
+      </c>
+      <c r="G34">
+        <v>0.2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>19.999999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
-      <c r="C35" t="s">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>213</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>155</v>
       </c>
-      <c r="E35">
+      <c r="E37" t="s">
+        <v>304</v>
+      </c>
+      <c r="F37">
         <v>10</v>
       </c>
-      <c r="F35">
+      <c r="G37">
         <v>60</v>
       </c>
-      <c r="G35">
-        <f>$F$5/(3*F35*E35)</f>
+      <c r="H37">
+        <f>$F$5/(3*G37*F37)</f>
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
-      <c r="C36" t="s">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
         <v>258</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>17</v>
       </c>
-      <c r="F36">
+      <c r="E38" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F38">
+        <v>1000</v>
+      </c>
+      <c r="G38">
         <v>0.25</v>
       </c>
-      <c r="G36" t="e">
-        <f>$F$5/(3*F36*E36)</f>
+      <c r="H38">
+        <f>$F$5/(3*G38*F38)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="s">
+        <v>304</v>
+      </c>
+      <c r="F39">
+        <v>12500</v>
+      </c>
+      <c r="G39">
+        <v>0.27</v>
+      </c>
+      <c r="H39">
+        <f>$F$5/(3*G39*F39)</f>
+        <v>0.29629629629629628</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D40" t="s">
+        <v>294</v>
+      </c>
+      <c r="E40" t="s">
+        <v>304</v>
+      </c>
+      <c r="F40">
+        <v>2500</v>
+      </c>
+      <c r="G40">
+        <v>0.37</v>
+      </c>
+      <c r="H40">
+        <f>$F$5/(3*G40*F40)</f>
+        <v>1.0810810810810814</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>304</v>
+      </c>
+      <c r="F41">
+        <v>500</v>
+      </c>
+      <c r="G41">
+        <v>1.72</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ref="H41:H45" si="4">$F$5/(3*G41*F41)</f>
+        <v>1.1627906976744187</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>304</v>
+      </c>
+      <c r="F42">
+        <v>21000</v>
+      </c>
+      <c r="H42" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
-      <c r="C37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37">
-        <v>12500</v>
-      </c>
-      <c r="F37">
-        <v>0.27</v>
-      </c>
-      <c r="G37">
-        <f>$F$5/(3*F37*E37)</f>
-        <v>0.29629629629629628</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="C38" t="s">
-        <v>281</v>
-      </c>
-      <c r="D38" t="s">
-        <v>294</v>
-      </c>
-      <c r="E38">
-        <v>2500</v>
-      </c>
-      <c r="F38">
-        <v>0.37</v>
-      </c>
-      <c r="G38">
-        <f>$F$5/(3*F38*E38)</f>
-        <v>1.0810810810810814</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="C39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="C41" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
         <v>83</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D43" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="C42" t="s">
+      <c r="E43" t="s">
+        <v>304</v>
+      </c>
+      <c r="F43">
+        <v>21000</v>
+      </c>
+      <c r="G43">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="4"/>
+        <v>1.0351966873706004E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
         <v>84</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="C43" t="s">
+      <c r="E44" t="s">
+        <v>304</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>16.28</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="4"/>
+        <v>0.61425061425061422</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
         <v>85</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D45" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="C45" t="s">
+      <c r="E45" t="s">
+        <v>304</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45">
+        <v>16.63</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="4"/>
+        <v>1.2026458208057726</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
         <v>40</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" t="s">
+      <c r="E47" t="s">
+        <v>304</v>
+      </c>
+      <c r="F47">
+        <v>42000</v>
+      </c>
+      <c r="G47">
+        <v>12.16</v>
+      </c>
+      <c r="H47">
+        <f>$F$5/(3*G47*F47)</f>
+        <v>1.9580200501253132E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
-      <c r="C48" t="s">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
         <v>61</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D50" t="s">
         <v>254</v>
       </c>
-      <c r="E48">
+      <c r="E50" t="s">
+        <v>304</v>
+      </c>
+      <c r="F50">
         <v>10</v>
       </c>
-      <c r="F48">
+      <c r="G50">
         <v>47</v>
       </c>
-      <c r="G48">
-        <f>$F$5/(3*F48*E48)</f>
+      <c r="H50">
+        <f>$F$5/(3*G50*F50)</f>
         <v>2.1276595744680851</v>
       </c>
     </row>
-    <row r="49" spans="3:4">
-      <c r="C49" t="s">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
         <v>87</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="C50" t="s">
+      <c r="E51" t="s">
+        <v>305</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>2.69</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ref="H51:H58" si="5">$F$5/(3*G51*F51)</f>
+        <v>37.174721189591075</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
         <v>55</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51" t="s">
+      <c r="E52" t="s">
+        <v>304</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="5"/>
+        <v>12.1654501216545</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
         <v>88</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D53" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="C52" t="s">
+      <c r="E53" t="s">
+        <v>305</v>
+      </c>
+      <c r="F53">
+        <v>500</v>
+      </c>
+      <c r="G53">
+        <v>1.52</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="5"/>
+        <v>1.3157894736842102</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
         <v>89</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D54" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="C53" t="s">
+      <c r="E54" t="s">
+        <v>304</v>
+      </c>
+      <c r="F54">
+        <v>400</v>
+      </c>
+      <c r="G54">
+        <v>4.58</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="5"/>
+        <v>0.54585152838427953</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
         <v>90</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="3:4">
-      <c r="C54" t="s">
+      <c r="E55" t="s">
+        <v>304</v>
+      </c>
+      <c r="F55">
+        <v>400</v>
+      </c>
+      <c r="G55">
+        <v>4.13</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="5"/>
+        <v>0.60532687651331718</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
         <v>91</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D56" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="55" spans="3:4">
-      <c r="C55" t="s">
+      <c r="E56" t="s">
+        <v>304</v>
+      </c>
+      <c r="F56">
+        <v>110</v>
+      </c>
+      <c r="G56">
+        <v>12.16</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="5"/>
+        <v>0.74760765550239228</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
         <v>92</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D57" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="3:4">
-      <c r="C56" t="s">
+      <c r="E57" t="s">
+        <v>304</v>
+      </c>
+      <c r="F57">
+        <v>50</v>
+      </c>
+      <c r="G57">
+        <v>4.25</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="5"/>
+        <v>4.7058823529411766</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
         <v>93</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D58" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="57" spans="3:4">
-      <c r="C57" t="s">
+      <c r="E58" t="s">
+        <v>305</v>
+      </c>
+      <c r="F58">
+        <v>150</v>
+      </c>
+      <c r="G58">
+        <v>3.22</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="5"/>
+        <v>2.0703933747412009</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="3:4">
-      <c r="C58" t="s">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
         <v>95</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D60" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="3:4">
-      <c r="C59" t="s">
+      <c r="E60" t="s">
+        <v>304</v>
+      </c>
+      <c r="F60">
+        <v>2000</v>
+      </c>
+      <c r="G60">
+        <v>20.58</v>
+      </c>
+      <c r="H60">
+        <f>$F$5/(3*G60*F60)</f>
+        <v>2.4295432458697766E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="3:4">
-      <c r="C60" t="s">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
         <v>97</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D62" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="C61" t="s">
+      <c r="E62" t="s">
+        <v>304</v>
+      </c>
+      <c r="F62">
+        <v>100</v>
+      </c>
+      <c r="G62">
+        <v>3.9</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ref="H62:H64" si="6">$F$5/(3*G62*F62)</f>
+        <v>2.5641025641025643</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
         <v>98</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D63" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="62" spans="3:4">
-      <c r="C62" t="s">
+      <c r="E63" t="s">
+        <v>304</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>19.16</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="6"/>
+        <v>5.2192066805845503</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
         <v>99</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D64" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="64" spans="3:4">
-      <c r="C64" t="s">
+      <c r="E64" t="s">
+        <v>305</v>
+      </c>
+      <c r="F64">
+        <v>1120</v>
+      </c>
+      <c r="G64">
+        <v>0.31</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="6"/>
+        <v>2.8801843317972353</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
         <v>9</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D66" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="3:4">
-      <c r="C65" t="s">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
         <v>9</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D67" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="66" spans="3:4">
-      <c r="C66" t="s">
+      <c r="E67" t="s">
+        <v>305</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H71" si="7">$F$5/(3*G67*F67)</f>
+        <v>1.5408320493066254</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
         <v>30</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D68" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="67" spans="3:4">
-      <c r="C67" t="s">
+      <c r="E68" t="s">
+        <v>304</v>
+      </c>
+      <c r="F68">
+        <v>500</v>
+      </c>
+      <c r="G68">
+        <v>15</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="7"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
         <v>33</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D69" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="68" spans="3:4">
-      <c r="C68" t="s">
+      <c r="E69" t="s">
+        <v>304</v>
+      </c>
+      <c r="F69">
+        <v>20000</v>
+      </c>
+      <c r="H69" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
         <v>35</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D70" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="69" spans="3:4">
-      <c r="C69" t="s">
+      <c r="E70" t="s">
+        <v>304</v>
+      </c>
+      <c r="F70">
+        <v>2000</v>
+      </c>
+      <c r="G70">
+        <v>0.22</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="7"/>
+        <v>2.2727272727272729</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
         <v>38</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D71" t="s">
         <v>39</v>
       </c>
+      <c r="E71" t="s">
+        <v>304</v>
+      </c>
+      <c r="F71">
+        <v>50</v>
+      </c>
+      <c r="H71" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
